--- a/src/resources/Fhir_Cohort_Import_Template_Full_Sample.xlsx
+++ b/src/resources/Fhir_Cohort_Import_Template_Full_Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mriley7\workspace\T21_Connectathon_Sets\Fhir_CohortPython_Generation\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B225E89-FF43-4794-98F2-E31222515F65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D8768-D4D3-457A-9890-A693B35E08C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" activeTab="3" xr2:uid="{B7CAF98F-F4CF-4673-A736-BDE9BA8D985C}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="455">
   <si>
     <t>Data Element</t>
   </si>
@@ -980,9 +980,6 @@
     <t xml:space="preserve">false </t>
   </si>
   <si>
-    <t>Final</t>
-  </si>
-  <si>
     <t>Takes 1-2 tablets once daily at bedtime as needed for restless legs</t>
   </si>
   <si>
@@ -995,9 +992,6 @@
     <t>AC221</t>
   </si>
   <si>
-    <t>July 2,1999</t>
-  </si>
-  <si>
     <t>Performer</t>
   </si>
   <si>
@@ -1080,9 +1074,6 @@
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/condition-ver-status^confirmed^Confirmed</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CodeSystem/condition-category^health-concern^Health Concerns</t>
   </si>
   <si>
     <t>http://snomed.info/sct^129007^Homoiothermia</t>
@@ -1350,6 +1341,63 @@
   </si>
   <si>
     <t>http://loinc.org^72166-2^Tobacco smoking status</t>
+  </si>
+  <si>
+    <t>http://loinc.org^8839-3^Aorta root Oxygen saturation</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.[0]</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/R4/valueset-diagnostic-service-sections.html</t>
+  </si>
+  <si>
+    <t>Diagnostic Report Category</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0074^LAB^Laboratory</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</t>
+  </si>
+  <si>
+    <t>Condition.category.[0]</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CodeSystem/condition-category^health-concern^Health Concern</t>
+  </si>
+  <si>
+    <t>MedicationRequest.intent</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/R4/valueset-medicationrequest-intent.html</t>
+  </si>
+  <si>
+    <t>Medication Request Intent</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>Pediatric BMI Code</t>
+  </si>
+  <si>
+    <t>http://loinc.org^59576-9^Body mass index (BMI) [Percentile] Per age and sex</t>
+  </si>
+  <si>
+    <t>Pediatric BMI effectiveDatetime</t>
+  </si>
+  <si>
+    <t>Vital Signs Category</t>
+  </si>
+  <si>
+    <t>MDE5OTg2MzMxMzQ0NDMxNjE3MjIwMTAxMTBNMzIwMjFBQzIyMQ==</t>
+  </si>
+  <si>
+    <t>35^g</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,7 +1615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1905,21 +1953,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1928,19 +1961,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1970,19 +1990,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1995,17 +2002,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2036,11 +2032,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2050,10 +2050,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2297,25 +2297,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2325,9 +2316,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2351,7 +2339,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2364,7 +2356,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2382,12 +2374,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2752,159 +2745,159 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="113.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:3" ht="19.8">
+      <c r="A1" s="125" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="125"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickBot="1">
+      <c r="A2" s="126" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+    </row>
+    <row r="3" spans="1:3" ht="103.5" customHeight="1" thickTop="1">
+      <c r="A3" s="123" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="123"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" thickBot="1">
+      <c r="A4" s="127" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="127"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="128" t="s">
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+    </row>
+    <row r="5" spans="1:3" ht="40.799999999999997" customHeight="1" thickTop="1">
+      <c r="A5" s="128" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-    </row>
-    <row r="3" spans="1:3" ht="103.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="s">
+      <c r="B5" s="128"/>
+    </row>
+    <row r="6" spans="1:3" ht="43.2">
+      <c r="A6" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B3" s="125"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="129" t="s">
+      <c r="B6" s="118" t="s">
         <v>380</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-    </row>
-    <row r="5" spans="1:3" ht="40.799999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="130" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B5" s="130"/>
-    </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B7" s="118" t="s">
         <v>382</v>
       </c>
-      <c r="B6" s="122" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="28.8">
+      <c r="A8" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="B8" s="118" t="s">
         <v>384</v>
       </c>
-      <c r="B7" s="122" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="28.8">
+      <c r="A9" s="8" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="B9" s="118" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="122" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="18" thickBot="1">
+      <c r="A10" s="126" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+    </row>
+    <row r="11" spans="1:3" ht="37.200000000000003" customHeight="1" thickTop="1">
+      <c r="A11" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B11" s="123"/>
+    </row>
+    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
+      <c r="A12" s="124" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="128" t="s">
+      <c r="B12" s="124"/>
+    </row>
+    <row r="13" spans="1:3" ht="37.200000000000003" customHeight="1">
+      <c r="A13" s="124" t="s">
         <v>390</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-    </row>
-    <row r="11" spans="1:3" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="125" t="s">
+      <c r="B13" s="124"/>
+    </row>
+    <row r="14" spans="1:3" ht="37.200000000000003" customHeight="1">
+      <c r="A14" s="124" t="s">
         <v>391</v>
       </c>
-      <c r="B11" s="125"/>
-    </row>
-    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="126" t="s">
+      <c r="B14" s="124"/>
+    </row>
+    <row r="15" spans="1:3" ht="17.399999999999999">
+      <c r="A15" s="119" t="s">
         <v>392</v>
       </c>
-      <c r="B12" s="126"/>
-    </row>
-    <row r="13" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="126" t="s">
+      <c r="B15" s="119"/>
+      <c r="C15" s="119" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="118" t="s">
         <v>393</v>
       </c>
-      <c r="B13" s="126"/>
-    </row>
-    <row r="14" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126" t="s">
+      <c r="C16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="118" t="s">
         <v>394</v>
       </c>
-      <c r="B14" s="126"/>
-    </row>
-    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="123" t="s">
+      <c r="C18" t="s">
         <v>395</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="124" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="122" t="s">
-        <v>396</v>
-      </c>
-      <c r="C16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="124" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="122" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="124" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="122" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="124" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="120" t="s">
         <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -2935,16 +2928,16 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="68.33203125" customWidth="1"/>
     <col min="4" max="4" width="68.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -2956,7 +2949,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="51" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -2967,7 +2960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -2979,7 +2972,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>282</v>
       </c>
@@ -2991,7 +2984,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -3003,7 +2996,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>287</v>
       </c>
@@ -3015,7 +3008,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>289</v>
       </c>
@@ -3026,7 +3019,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -3037,18 +3030,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -3059,9 +3052,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
         <v>295</v>
@@ -3070,9 +3063,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
         <v>295</v>
@@ -3081,9 +3074,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B13" t="s">
         <v>295</v>
@@ -3092,18 +3085,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>296</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>297</v>
       </c>
@@ -3111,23 +3104,23 @@
         <v>300</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>298</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
         <v>295</v>
@@ -3136,7 +3129,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -3147,9 +3140,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
         <v>295</v>
@@ -3158,19 +3151,19 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="C24" s="8"/>
     </row>
   </sheetData>
@@ -3181,30 +3174,29 @@
     <hyperlink ref="C18" r:id="rId4" xr:uid="{B9BB58C3-430D-7D4B-8A92-52E16056030E}"/>
     <hyperlink ref="C9" r:id="rId5" xr:uid="{3CFC6CFD-7132-9143-959C-CA738E05BFF5}"/>
     <hyperlink ref="C10" r:id="rId6" xr:uid="{BD7616BB-F540-A446-A952-1BC9851B64D0}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{BF21B12E-131A-5C48-BB05-751C759A23AD}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{CE28EF9E-2184-8149-9FA5-0E4AEDE2B9D2}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{404C24E6-242A-354C-8B49-5E28E2A69EF6}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{5A89D475-4504-054F-A6DB-A61434CB05AB}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{CE28EF9E-2184-8149-9FA5-0E4AEDE2B9D2}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{404C24E6-242A-354C-8B49-5E28E2A69EF6}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{5A89D475-4504-054F-A6DB-A61434CB05AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1F7A94-D1C6-4537-A70E-D5B7DD1165E4}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -3215,7 +3207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="28.8">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3226,7 +3218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>282</v>
       </c>
@@ -3237,7 +3229,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -3248,7 +3240,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -3259,7 +3251,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -3270,7 +3262,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -3281,7 +3273,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -3292,7 +3284,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -3303,7 +3295,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>296</v>
       </c>
@@ -3314,29 +3306,29 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>296</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -3347,7 +3339,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -3358,18 +3350,18 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>298</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>299</v>
       </c>
@@ -3380,9 +3372,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s">
         <v>286</v>
@@ -3391,9 +3383,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B18" t="s">
         <v>286</v>
@@ -3402,9 +3394,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B19" t="s">
         <v>286</v>
@@ -3413,9 +3405,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B20" t="s">
         <v>286</v>
@@ -3424,14 +3416,25 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
         <v>286</v>
       </c>
       <c r="C21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3443,37 +3446,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB4DC11-02AF-44A1-9E33-056BEEEC10B1}">
-  <dimension ref="A1:DJ16"/>
+  <dimension ref="A1:DO16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CY13" sqref="CY13"/>
+      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BR8" sqref="BR8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="116.109375" customWidth="1"/>
-    <col min="3" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="20" width="30" customWidth="1"/>
-    <col min="33" max="41" width="30" customWidth="1"/>
-    <col min="43" max="43" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="49" bestFit="1" customWidth="1"/>
-    <col min="47" max="57" width="30" customWidth="1"/>
-    <col min="66" max="66" width="30" customWidth="1"/>
-    <col min="68" max="68" width="30" customWidth="1"/>
-    <col min="69" max="69" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="70" max="84" width="30" customWidth="1"/>
-    <col min="85" max="85" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="30" customWidth="1"/>
-    <col min="88" max="88" width="43" customWidth="1"/>
-    <col min="89" max="90" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="30" customWidth="1"/>
-    <col min="99" max="99" width="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="109" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:119" ht="52.2" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
@@ -3649,43 +3636,43 @@
         <v>294</v>
       </c>
       <c r="BG1" s="55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BH1" s="55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BI1" s="55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BJ1" s="55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BK1" s="55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BL1" s="55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BM1" s="81" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BN1" s="82" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BO1" s="82" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BP1" s="82" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BQ1" s="82" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BR1" s="82" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BS1" s="82" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BT1" s="83" t="s">
         <v>296</v>
@@ -3699,23 +3686,23 @@
       <c r="BW1" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="BX1" s="84" t="s">
-        <v>328</v>
+      <c r="BX1" s="83" t="s">
+        <v>296</v>
       </c>
       <c r="BY1" s="84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BZ1" s="84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="CA1" s="84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="CB1" s="84" t="s">
-        <v>328</v>
-      </c>
-      <c r="CC1" s="85" t="s">
-        <v>297</v>
+        <v>326</v>
+      </c>
+      <c r="CC1" s="84" t="s">
+        <v>326</v>
       </c>
       <c r="CD1" s="85" t="s">
         <v>297</v>
@@ -3729,8 +3716,8 @@
       <c r="CG1" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="CH1" s="86" t="s">
-        <v>298</v>
+      <c r="CH1" s="85" t="s">
+        <v>297</v>
       </c>
       <c r="CI1" s="86" t="s">
         <v>298</v>
@@ -3741,26 +3728,26 @@
       <c r="CK1" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="CL1" s="87" t="s">
-        <v>329</v>
-      </c>
-      <c r="CM1" s="87" t="s">
-        <v>329</v>
+      <c r="CL1" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="CM1" s="86" t="s">
+        <v>298</v>
       </c>
       <c r="CN1" s="87" t="s">
-        <v>329</v>
-      </c>
-      <c r="CO1" s="67" t="s">
-        <v>329</v>
-      </c>
-      <c r="CP1" s="88" t="s">
-        <v>299</v>
-      </c>
-      <c r="CQ1" s="88" t="s">
-        <v>299</v>
-      </c>
-      <c r="CR1" s="88" t="s">
-        <v>299</v>
+        <v>327</v>
+      </c>
+      <c r="CO1" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="CP1" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="CQ1" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="CR1" s="67" t="s">
+        <v>327</v>
       </c>
       <c r="CS1" s="88" t="s">
         <v>299</v>
@@ -3780,26 +3767,41 @@
       <c r="CX1" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="CY1" s="106" t="s">
-        <v>331</v>
-      </c>
-      <c r="CZ1" s="106" t="s">
-        <v>331</v>
-      </c>
-      <c r="DA1" s="107" t="s">
-        <v>331</v>
-      </c>
-      <c r="DB1" s="103"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="12"/>
-      <c r="DI1" s="12"/>
+      <c r="CY1" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="CZ1" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="DA1" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="DB1" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="DC1" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="DD1" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="DE1" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="DF1" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="DG1" s="103"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
       <c r="DJ1" s="12"/>
-    </row>
-    <row r="2" spans="1:114" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="DK1" s="12"/>
+      <c r="DL1" s="12"/>
+      <c r="DM1" s="12"/>
+      <c r="DN1" s="12"/>
+      <c r="DO1" s="12"/>
+    </row>
+    <row r="2" spans="1:119" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1">
       <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
@@ -3813,13 +3815,13 @@
         <v>209</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>211</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H2" s="45" t="s">
         <v>214</v>
@@ -3843,7 +3845,7 @@
         <v>155</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P2" s="47" t="s">
         <v>161</v>
@@ -3852,7 +3854,7 @@
         <v>162</v>
       </c>
       <c r="R2" s="47" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="S2" s="47" t="s">
         <v>167</v>
@@ -3873,13 +3875,13 @@
         <v>33</v>
       </c>
       <c r="Y2" s="37" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Z2" s="37" t="s">
         <v>49</v>
       </c>
       <c r="AA2" s="37" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AB2" s="37" t="s">
         <v>50</v>
@@ -3903,7 +3905,7 @@
         <v>64</v>
       </c>
       <c r="AI2" s="37" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AJ2" s="37" t="s">
         <v>36</v>
@@ -3930,25 +3932,25 @@
         <v>175</v>
       </c>
       <c r="AR2" s="43" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AS2" s="43" t="s">
         <v>180</v>
       </c>
       <c r="AT2" s="43" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AU2" s="49" t="s">
         <v>74</v>
       </c>
       <c r="AV2" s="49" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AW2" s="49" t="s">
         <v>79</v>
       </c>
       <c r="AX2" s="49" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AY2" s="49" t="s">
         <v>86</v>
@@ -3963,7 +3965,7 @@
         <v>136</v>
       </c>
       <c r="BC2" s="51" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="BD2" s="53" t="s">
         <v>189</v>
@@ -3978,22 +3980,22 @@
         <v>100</v>
       </c>
       <c r="BH2" s="55" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="BI2" s="55" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="BJ2" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="BK2" s="55" t="s">
         <v>103</v>
       </c>
       <c r="BL2" s="55" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="BM2" s="55" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="BN2" s="57" t="s">
         <v>100</v>
@@ -4002,7 +4004,7 @@
         <v>105</v>
       </c>
       <c r="BP2" s="57" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="BQ2" s="57" t="s">
         <v>198</v>
@@ -4017,115 +4019,130 @@
         <v>217</v>
       </c>
       <c r="BU2" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="BV2" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="BV2" s="59" t="s">
+      <c r="BW2" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="BW2" s="83" t="s">
+      <c r="BX2" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="BX2" s="61" t="s">
+      <c r="BY2" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="BY2" s="61" t="s">
+      <c r="BZ2" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="BZ2" s="61" t="s">
-        <v>412</v>
-      </c>
       <c r="CA2" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="CB2" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="CB2" s="61" t="s">
+      <c r="CC2" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="CC2" s="63" t="s">
+      <c r="CD2" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="CD2" s="63" t="s">
+      <c r="CE2" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="CE2" s="63" t="s">
-        <v>39</v>
-      </c>
       <c r="CF2" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="CG2" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="CG2" s="63" t="s">
+      <c r="CH2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="CH2" s="65" t="s">
+      <c r="CI2" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="CI2" s="65" t="s">
-        <v>245</v>
-      </c>
       <c r="CJ2" s="65" t="s">
+        <v>444</v>
+      </c>
+      <c r="CK2" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="CL2" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="CK2" s="65" t="s">
+      <c r="CM2" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="CL2" s="67" t="s">
+      <c r="CN2" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="CM2" s="67" t="s">
-        <v>412</v>
-      </c>
-      <c r="CN2" s="67" t="s">
-        <v>274</v>
-      </c>
       <c r="CO2" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="CP2" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="CQ2" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR2" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="CP2" s="69" t="s">
+      <c r="CS2" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="CQ2" s="69" t="s">
+      <c r="CT2" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="CR2" s="69" t="s">
+      <c r="CU2" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="CS2" s="69" t="s">
+      <c r="CV2" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="CT2" s="69" t="s">
+      <c r="CW2" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="CU2" s="69" t="s">
+      <c r="CX2" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="CV2" s="69" t="s">
+      <c r="CY2" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="CW2" s="69" t="s">
+      <c r="CZ2" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="CX2" s="69" t="s">
+      <c r="DA2" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="CY2" s="94" t="s">
+      <c r="DB2" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="DC2" s="107" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD2" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="CZ2" s="94" t="s">
-        <v>274</v>
-      </c>
-      <c r="DA2" s="108" t="s">
+      <c r="DE2" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="DF2" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="DB2" s="103"/>
-      <c r="DC2" s="13"/>
-      <c r="DD2" s="13"/>
-      <c r="DE2" s="13"/>
-      <c r="DF2" s="13"/>
-      <c r="DG2" s="13"/>
+      <c r="DG2" s="103"/>
       <c r="DH2" s="13"/>
       <c r="DI2" s="13"/>
       <c r="DJ2" s="13"/>
-    </row>
-    <row r="3" spans="1:114" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="DK2" s="13"/>
+      <c r="DL2" s="13"/>
+      <c r="DM2" s="13"/>
+      <c r="DN2" s="13"/>
+      <c r="DO2" s="13"/>
+    </row>
+    <row r="3" spans="1:119" ht="52.2" customHeight="1" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
@@ -4340,28 +4357,28 @@
         <v>70</v>
       </c>
       <c r="BV3" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="BW3" s="83" t="s">
+      <c r="BX3" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="BX3" s="61" t="s">
+      <c r="BY3" s="61" t="s">
         <v>27</v>
-      </c>
-      <c r="BY3" s="61" t="s">
-        <v>70</v>
       </c>
       <c r="BZ3" s="61" t="s">
         <v>70</v>
       </c>
       <c r="CA3" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB3" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="CB3" s="61" t="s">
+      <c r="CC3" s="61" t="s">
         <v>109</v>
-      </c>
-      <c r="CC3" s="63" t="s">
-        <v>70</v>
       </c>
       <c r="CD3" s="63" t="s">
         <v>70</v>
@@ -4373,79 +4390,94 @@
         <v>70</v>
       </c>
       <c r="CG3" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="CH3" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="CH3" s="65" t="s">
+      <c r="CI3" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="CI3" s="65" t="s">
+      <c r="CJ3" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK3" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="CJ3" s="65" t="s">
+      <c r="CL3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="CK3" s="65" t="s">
+      <c r="CM3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="CL3" s="67" t="s">
+      <c r="CN3" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="CM3" s="67" t="s">
+      <c r="CO3" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="CN3" s="67" t="s">
+      <c r="CP3" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="CQ3" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="CO3" s="67" t="s">
+      <c r="CR3" s="67" t="s">
         <v>109</v>
-      </c>
-      <c r="CP3" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="CQ3" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="CR3" s="69" t="s">
-        <v>23</v>
       </c>
       <c r="CS3" s="69" t="s">
         <v>23</v>
       </c>
       <c r="CT3" s="69" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="CU3" s="69" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="CV3" s="69" t="s">
         <v>23</v>
       </c>
       <c r="CW3" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="CX3" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="CY3" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="CX3" s="69" t="s">
+      <c r="CZ3" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="DA3" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="CY3" s="94" t="s">
+      <c r="DB3" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="DC3" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="CZ3" s="94" t="s">
+      <c r="DD3" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="DE3" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="DA3" s="108" t="s">
+      <c r="DF3" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="DB3" s="103"/>
-      <c r="DC3" s="13"/>
-      <c r="DD3" s="13"/>
-      <c r="DE3" s="13"/>
-      <c r="DF3" s="13"/>
-      <c r="DG3" s="13"/>
+      <c r="DG3" s="103"/>
       <c r="DH3" s="13"/>
       <c r="DI3" s="13"/>
       <c r="DJ3" s="13"/>
-    </row>
-    <row r="4" spans="1:114" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="DK3" s="13"/>
+      <c r="DL3" s="13"/>
+      <c r="DM3" s="13"/>
+      <c r="DN3" s="13"/>
+      <c r="DO3" s="13"/>
+    </row>
+    <row r="4" spans="1:119" ht="52.2" customHeight="1" thickBot="1">
       <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
@@ -4455,7 +4487,7 @@
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="45" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="45" t="s">
@@ -4509,7 +4541,7 @@
         <v>65</v>
       </c>
       <c r="AI4" s="37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AJ4" s="38"/>
       <c r="AK4" s="38"/>
@@ -4564,7 +4596,7 @@
         <v>106</v>
       </c>
       <c r="BJ4" s="56" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="BK4" s="56"/>
       <c r="BL4" s="56"/>
@@ -4576,7 +4608,7 @@
         <v>106</v>
       </c>
       <c r="BP4" s="58" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="BQ4" s="58"/>
       <c r="BR4" s="58"/>
@@ -4587,73 +4619,86 @@
         <v>218</v>
       </c>
       <c r="BU4" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="BV4" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="83"/>
-      <c r="BX4" s="62" t="s">
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="83"/>
+      <c r="BY4" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="BY4" s="62" t="s">
+      <c r="BZ4" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="BZ4" s="62" t="s">
-        <v>413</v>
-      </c>
-      <c r="CA4" s="61"/>
+      <c r="CA4" s="62" t="s">
+        <v>410</v>
+      </c>
       <c r="CB4" s="61"/>
-      <c r="CC4" s="64" t="s">
+      <c r="CC4" s="61"/>
+      <c r="CD4" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="CD4" s="64" t="s">
+      <c r="CE4" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="CE4" s="64" t="s">
+      <c r="CF4" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="CF4" s="64"/>
       <c r="CG4" s="64"/>
-      <c r="CH4" s="66" t="s">
+      <c r="CH4" s="64"/>
+      <c r="CI4" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="CI4" s="66" t="s">
+      <c r="CJ4" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="CK4" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="CJ4" s="65"/>
-      <c r="CK4" s="65"/>
-      <c r="CL4" s="68"/>
-      <c r="CM4" s="68" t="s">
-        <v>413</v>
-      </c>
+      <c r="CL4" s="65"/>
+      <c r="CM4" s="65"/>
       <c r="CN4" s="68"/>
-      <c r="CO4" s="68"/>
-      <c r="CP4" s="70"/>
-      <c r="CQ4" s="70"/>
-      <c r="CR4" s="70"/>
+      <c r="CO4" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP4" s="68" t="s">
+        <v>410</v>
+      </c>
+      <c r="CQ4" s="68"/>
+      <c r="CR4" s="68"/>
       <c r="CS4" s="70"/>
       <c r="CT4" s="70"/>
       <c r="CU4" s="70"/>
       <c r="CV4" s="70"/>
       <c r="CW4" s="70"/>
-      <c r="CX4" s="70" t="s">
+      <c r="CX4" s="70"/>
+      <c r="CY4" s="70"/>
+      <c r="CZ4" s="70"/>
+      <c r="DA4" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="CY4" s="136" t="s">
+      <c r="DB4" s="107"/>
+      <c r="DC4" s="107" t="s">
+        <v>410</v>
+      </c>
+      <c r="DD4" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="CZ4" s="94"/>
-      <c r="DA4" s="108"/>
-      <c r="DB4" s="104"/>
-      <c r="DC4" s="1"/>
-      <c r="DD4" s="1"/>
-      <c r="DE4" s="1"/>
-      <c r="DF4" s="1"/>
-      <c r="DG4" s="1"/>
+      <c r="DE4" s="107"/>
+      <c r="DF4" s="107"/>
+      <c r="DG4" s="104"/>
       <c r="DH4" s="1"/>
       <c r="DI4" s="1"/>
       <c r="DJ4" s="1"/>
-    </row>
-    <row r="5" spans="1:114" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DK4" s="1"/>
+      <c r="DL4" s="1"/>
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="1"/>
+      <c r="DO4" s="1"/>
+    </row>
+    <row r="5" spans="1:119" ht="65.55" customHeight="1">
       <c r="A5" s="28" t="s">
         <v>45</v>
       </c>
@@ -4872,13 +4917,13 @@
       <c r="BV5" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="BW5" s="83" t="s">
+      <c r="BW5" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="BX5" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="BY5" s="61" t="s">
+      <c r="BX5" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="BY5" s="62" t="s">
         <v>99</v>
       </c>
       <c r="BZ5" s="61" t="s">
@@ -4890,15 +4935,15 @@
       <c r="CB5" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="CC5" s="64"/>
-      <c r="CD5" s="63"/>
+      <c r="CC5" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD5" s="64"/>
       <c r="CE5" s="63"/>
-      <c r="CF5" s="64"/>
-      <c r="CG5" s="63"/>
-      <c r="CH5" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="CI5" s="65" t="s">
+      <c r="CF5" s="63"/>
+      <c r="CG5" s="64"/>
+      <c r="CH5" s="63"/>
+      <c r="CI5" s="66" t="s">
         <v>239</v>
       </c>
       <c r="CJ5" s="65" t="s">
@@ -4907,28 +4952,28 @@
       <c r="CK5" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="CL5" s="68" t="s">
+      <c r="CL5" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="CM5" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="CN5" s="68" t="s">
         <v>125</v>
-      </c>
-      <c r="CM5" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="CN5" s="68" t="s">
-        <v>271</v>
       </c>
       <c r="CO5" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="CP5" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="CQ5" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="CR5" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="CS5" s="69" t="s">
+      <c r="CP5" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="CQ5" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR5" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="CS5" s="70" t="s">
         <v>250</v>
       </c>
       <c r="CT5" s="69" t="s">
@@ -4946,26 +4991,41 @@
       <c r="CX5" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="CY5" s="94" t="s">
+      <c r="CY5" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="CZ5" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="DA5" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="DB5" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC5" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="DD5" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="CZ5" s="94" t="s">
+      <c r="DE5" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="DA5" s="108" t="s">
+      <c r="DF5" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="DB5" s="103"/>
-      <c r="DC5" s="13"/>
-      <c r="DD5" s="13"/>
-      <c r="DE5" s="13"/>
-      <c r="DF5" s="13"/>
-      <c r="DG5" s="13"/>
+      <c r="DG5" s="103"/>
       <c r="DH5" s="13"/>
       <c r="DI5" s="13"/>
       <c r="DJ5" s="13"/>
-    </row>
-    <row r="6" spans="1:114" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="DK5" s="13"/>
+      <c r="DL5" s="13"/>
+      <c r="DM5" s="13"/>
+      <c r="DN5" s="13"/>
+      <c r="DO5" s="13"/>
+    </row>
+    <row r="6" spans="1:119" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
@@ -4979,7 +5039,7 @@
         <v>210</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F6" s="92" t="s">
         <v>212</v>
@@ -5039,16 +5099,16 @@
         <v>51</v>
       </c>
       <c r="Y6" s="92" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Z6" s="92" t="s">
         <v>47</v>
       </c>
       <c r="AA6" s="92" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB6" s="92" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AC6" s="92" t="s">
         <v>24</v>
@@ -5069,7 +5129,7 @@
         <v>63</v>
       </c>
       <c r="AI6" s="92" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AJ6" s="92" t="s">
         <v>38</v>
@@ -5078,7 +5138,7 @@
         <v>66</v>
       </c>
       <c r="AL6" s="92" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AM6" s="92" t="s">
         <v>147</v>
@@ -5141,19 +5201,19 @@
         <v>193</v>
       </c>
       <c r="BG6" s="92" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="BH6" s="92" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="BI6" s="92" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="BJ6" s="92" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="BK6" s="92" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="BL6" s="92" t="s">
         <v>171</v>
@@ -5165,16 +5225,16 @@
         <v>196</v>
       </c>
       <c r="BO6" s="92" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="BP6" s="92" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="BQ6" s="92" t="s">
         <v>199</v>
       </c>
       <c r="BR6" s="92" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="BS6" s="92" t="s">
         <v>200</v>
@@ -5183,115 +5243,130 @@
         <v>219</v>
       </c>
       <c r="BU6" s="92" t="s">
+        <v>439</v>
+      </c>
+      <c r="BV6" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="BV6" s="92" t="s">
+      <c r="BW6" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="BW6" s="92" t="s">
+      <c r="BX6" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="BX6" s="92" t="s">
+      <c r="BY6" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="BY6" s="92" t="s">
+      <c r="BZ6" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="BZ6" s="92" t="s">
+      <c r="CA6" s="92" t="s">
+        <v>411</v>
+      </c>
+      <c r="CB6" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC6" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD6" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="CE6" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="CF6" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG6" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="CH6" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="CI6" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="CJ6" s="92" t="s">
+        <v>446</v>
+      </c>
+      <c r="CK6" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="CL6" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="CM6" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="CN6" s="92" t="s">
+        <v>413</v>
+      </c>
+      <c r="CO6" s="92" t="s">
+        <v>449</v>
+      </c>
+      <c r="CP6" s="92" t="s">
+        <v>415</v>
+      </c>
+      <c r="CQ6" s="92" t="s">
+        <v>451</v>
+      </c>
+      <c r="CR6" s="92" t="s">
         <v>414</v>
       </c>
-      <c r="CA6" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="CB6" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC6" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="CD6" s="92" t="s">
-        <v>233</v>
-      </c>
-      <c r="CE6" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="CF6" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="CG6" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH6" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="CI6" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="CJ6" s="92" t="s">
-        <v>247</v>
-      </c>
-      <c r="CK6" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="CL6" s="92" t="s">
-        <v>416</v>
-      </c>
-      <c r="CM6" s="92" t="s">
-        <v>418</v>
-      </c>
-      <c r="CN6" s="110" t="s">
+      <c r="CS6" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT6" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="CU6" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="CV6" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="CW6" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="CX6" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="CY6" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="CZ6" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="DA6" s="93"/>
+      <c r="DB6" s="108" t="s">
+        <v>413</v>
+      </c>
+      <c r="DC6" s="136" t="s">
+        <v>452</v>
+      </c>
+      <c r="DD6" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="DE6" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="CO6" s="92" t="s">
-        <v>417</v>
-      </c>
-      <c r="CP6" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="CQ6" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="CR6" s="92" t="s">
-        <v>257</v>
-      </c>
-      <c r="CS6" s="92" t="s">
-        <v>258</v>
-      </c>
-      <c r="CT6" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="CU6" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="CV6" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="CW6" s="92" t="s">
-        <v>266</v>
-      </c>
-      <c r="CX6" s="93"/>
-      <c r="CY6" s="109" t="s">
-        <v>273</v>
-      </c>
-      <c r="CZ6" s="110" t="s">
-        <v>275</v>
-      </c>
-      <c r="DA6" s="111" t="s">
+      <c r="DF6" s="135" t="s">
         <v>276</v>
       </c>
-      <c r="DB6" s="105"/>
-      <c r="DC6" s="14"/>
-      <c r="DD6" s="14"/>
-      <c r="DE6" s="14"/>
-      <c r="DF6" s="14"/>
-      <c r="DG6" s="14"/>
+      <c r="DG6" s="105"/>
       <c r="DH6" s="14"/>
-      <c r="DI6" s="15"/>
-      <c r="DJ6" s="15"/>
-    </row>
-    <row r="7" spans="1:114" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
-      <c r="B7" s="112"/>
+      <c r="DI6" s="14"/>
+      <c r="DJ6" s="14"/>
+      <c r="DK6" s="14"/>
+      <c r="DL6" s="14"/>
+      <c r="DM6" s="14"/>
+      <c r="DN6" s="15"/>
+      <c r="DO6" s="15"/>
+    </row>
+    <row r="7" spans="1:119" s="2" customFormat="1" ht="57.6">
+      <c r="A7" s="129"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="96" t="b">
         <v>1</v>
       </c>
@@ -5301,35 +5376,35 @@
       <c r="E7" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="110" t="s">
         <v>281</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H7" s="97" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I7" s="97">
         <v>1234567890</v>
       </c>
       <c r="J7" s="97" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K7" s="97" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L7" s="97">
         <v>1234</v>
       </c>
       <c r="M7" s="97" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N7" s="98" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O7" s="98" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P7" s="100">
         <v>42046.375162037039</v>
@@ -5338,10 +5413,10 @@
         <v>42046.416828703703</v>
       </c>
       <c r="R7" s="98" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S7" s="98" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="T7" s="97" t="s">
         <v>311</v>
@@ -5358,17 +5433,17 @@
       <c r="X7" s="98" t="s">
         <v>305</v>
       </c>
-      <c r="Y7" t="s">
-        <v>376</v>
+      <c r="Y7" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="Z7" s="97">
         <v>1032704</v>
       </c>
-      <c r="AA7" t="s">
-        <v>368</v>
+      <c r="AA7" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="AB7" s="97" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AC7" s="97" t="s">
         <v>306</v>
@@ -5386,19 +5461,19 @@
         <v>309</v>
       </c>
       <c r="AH7" s="97" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AI7" s="97" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AJ7" s="99">
         <v>42384</v>
       </c>
       <c r="AK7" s="97" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AL7" s="97" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AM7" s="97">
         <v>9941339108</v>
@@ -5410,7 +5485,7 @@
         <v>313</v>
       </c>
       <c r="AP7" s="97" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AQ7" s="97" t="s">
         <v>314</v>
@@ -5422,73 +5497,73 @@
         <v>281</v>
       </c>
       <c r="AT7" s="97" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AU7" s="97" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AV7" s="98" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AW7" s="98" t="s">
-        <v>340</v>
-      </c>
-      <c r="AX7" s="114">
+        <v>338</v>
+      </c>
+      <c r="AX7" s="111">
         <v>42377</v>
       </c>
       <c r="AY7" s="97" t="s">
         <v>315</v>
       </c>
       <c r="AZ7" s="98" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="BA7" s="98" t="s">
+        <v>339</v>
+      </c>
+      <c r="BB7" s="98" t="s">
+        <v>340</v>
+      </c>
+      <c r="BC7" s="110" t="s">
         <v>341</v>
       </c>
-      <c r="BB7" s="98" t="s">
+      <c r="BD7" s="97" t="s">
+        <v>353</v>
+      </c>
+      <c r="BE7" s="98" t="s">
         <v>342</v>
-      </c>
-      <c r="BC7" s="113" t="s">
-        <v>343</v>
-      </c>
-      <c r="BD7" s="97" t="s">
-        <v>356</v>
-      </c>
-      <c r="BE7" s="98" t="s">
-        <v>344</v>
       </c>
       <c r="BF7" s="99">
         <v>37399</v>
       </c>
       <c r="BG7" s="97" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BH7" s="97" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="BI7" s="97" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="BJ7" s="98" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="BK7" s="99">
         <v>38538</v>
       </c>
       <c r="BL7" s="97" t="s">
-        <v>425</v>
-      </c>
-      <c r="BM7" s="139" t="s">
-        <v>424</v>
+        <v>422</v>
+      </c>
+      <c r="BM7" s="122" t="s">
+        <v>421</v>
       </c>
       <c r="BN7" s="97" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BO7" s="97" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="BP7" s="98" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="BQ7" s="99">
         <v>37399</v>
@@ -5497,906 +5572,937 @@
         <v>38538</v>
       </c>
       <c r="BS7" s="98" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BT7" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="BU7" s="134" t="s">
+        <v>440</v>
+      </c>
+      <c r="BV7" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="BW7" s="100">
+        <v>40575.360763888886</v>
+      </c>
+      <c r="BX7" s="99">
+        <v>40544</v>
+      </c>
+      <c r="BY7" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="BZ7" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="CA7" s="98" t="s">
+        <v>412</v>
+      </c>
+      <c r="CB7" s="99">
+        <v>38538</v>
+      </c>
+      <c r="CC7" s="102" t="s">
+        <v>421</v>
+      </c>
+      <c r="CD7" s="98" t="s">
+        <v>346</v>
+      </c>
+      <c r="CE7" s="98" t="s">
+        <v>347</v>
+      </c>
+      <c r="CF7" s="98" t="s">
+        <v>443</v>
+      </c>
+      <c r="CG7" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="CH7" s="99">
+        <v>39430</v>
+      </c>
+      <c r="CI7" s="97" t="s">
+        <v>401</v>
+      </c>
+      <c r="CJ7" s="97" t="s">
+        <v>447</v>
+      </c>
+      <c r="CK7" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="CL7" s="99">
+        <v>43640</v>
+      </c>
+      <c r="CM7" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="BU7" s="97" t="s">
-        <v>346</v>
-      </c>
-      <c r="BV7" s="100">
-        <v>40575.360763888886</v>
-      </c>
-      <c r="BW7" s="99">
-        <v>40544</v>
-      </c>
-      <c r="BX7" s="97" t="s">
-        <v>316</v>
-      </c>
-      <c r="BY7" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="BZ7" s="98" t="s">
-        <v>415</v>
-      </c>
-      <c r="CA7" s="99">
-        <v>38538</v>
-      </c>
-      <c r="CB7" s="102" t="s">
-        <v>424</v>
-      </c>
-      <c r="CC7" s="98" t="s">
-        <v>348</v>
-      </c>
-      <c r="CD7" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="CE7" s="98" t="s">
-        <v>350</v>
-      </c>
-      <c r="CF7" s="98" t="s">
-        <v>351</v>
-      </c>
-      <c r="CG7" s="99">
-        <v>39430</v>
-      </c>
-      <c r="CH7" s="97" t="s">
-        <v>404</v>
-      </c>
-      <c r="CI7" s="98" t="s">
-        <v>352</v>
-      </c>
-      <c r="CJ7" s="99">
-        <v>43640</v>
-      </c>
-      <c r="CK7" s="97" t="s">
-        <v>317</v>
-      </c>
-      <c r="CL7" s="102" t="s">
-        <v>330</v>
-      </c>
-      <c r="CM7" s="98" t="s">
-        <v>415</v>
-      </c>
-      <c r="CN7" s="97" t="s">
-        <v>321</v>
-      </c>
-      <c r="CO7" s="102" t="s">
-        <v>426</v>
-      </c>
-      <c r="CP7" s="97">
-        <v>99863313444316</v>
-      </c>
-      <c r="CQ7" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="CR7" s="101" t="s">
-        <v>318</v>
+      <c r="CN7" s="102" t="s">
+        <v>328</v>
+      </c>
+      <c r="CO7" s="97" t="s">
+        <v>450</v>
+      </c>
+      <c r="CP7" s="98" t="s">
+        <v>412</v>
+      </c>
+      <c r="CQ7" s="99">
+        <v>36343</v>
+      </c>
+      <c r="CR7" s="102" t="s">
+        <v>423</v>
       </c>
       <c r="CS7" s="97">
         <v>99863313444316</v>
       </c>
-      <c r="CT7" s="99">
+      <c r="CT7" s="101" t="s">
+        <v>453</v>
+      </c>
+      <c r="CU7" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="CV7" s="97">
+        <v>99863313444316</v>
+      </c>
+      <c r="CW7" s="99">
         <v>30317</v>
       </c>
-      <c r="CU7" s="99">
+      <c r="CX7" s="99">
         <v>44562</v>
       </c>
-      <c r="CV7" s="97" t="s">
+      <c r="CY7" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="CZ7" s="97" t="s">
         <v>319</v>
       </c>
-      <c r="CW7" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="CX7" s="98" t="s">
-        <v>353</v>
-      </c>
-      <c r="CY7" s="115" t="s">
-        <v>420</v>
-      </c>
-      <c r="CZ7" s="97" t="s">
-        <v>321</v>
-      </c>
-      <c r="DA7" s="116" t="s">
+      <c r="DA7" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="DB7" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC7" s="98" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="117"/>
+      <c r="DD7" s="97" t="s">
+        <v>417</v>
+      </c>
+      <c r="DE7" s="99">
+        <v>36343</v>
+      </c>
+      <c r="DF7" s="112" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:119">
+      <c r="A8" s="130"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="118"/>
-      <c r="AD8" s="118"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="118"/>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="118"/>
-      <c r="AI8" s="118"/>
-      <c r="AJ8" s="118"/>
-      <c r="AK8" s="118"/>
-      <c r="AL8" s="118"/>
-      <c r="AP8" s="118"/>
-      <c r="AQ8" s="118"/>
-      <c r="AR8" s="118"/>
-      <c r="AS8" s="118"/>
-      <c r="AT8" s="118"/>
-      <c r="AU8" s="118"/>
-      <c r="AV8" s="118"/>
-      <c r="AW8" s="118"/>
-      <c r="AX8" s="118"/>
-      <c r="AY8" s="118"/>
-      <c r="AZ8" s="118"/>
-      <c r="BA8" s="118"/>
-      <c r="BB8" s="118"/>
-      <c r="BC8" s="118"/>
-      <c r="BD8" s="118"/>
-      <c r="BE8" s="118"/>
-      <c r="BF8" s="118"/>
-      <c r="BG8" s="118"/>
-      <c r="BH8" s="118"/>
-      <c r="BI8" s="118"/>
-      <c r="BJ8" s="118"/>
-      <c r="BK8" s="118"/>
-      <c r="BL8" s="118"/>
-      <c r="BM8" s="118"/>
-      <c r="BN8" s="118"/>
-      <c r="BO8" s="118"/>
-      <c r="BP8" s="118"/>
-      <c r="BQ8" s="118"/>
-      <c r="BR8" s="118"/>
-      <c r="BS8" s="118"/>
-      <c r="BT8" s="118"/>
-      <c r="BU8" s="118"/>
-      <c r="BV8" s="118"/>
-      <c r="BW8" s="118"/>
-      <c r="BX8" s="118"/>
-      <c r="BY8" s="118"/>
-      <c r="BZ8" s="118"/>
-      <c r="CA8" s="118"/>
-      <c r="CB8" s="118"/>
-      <c r="CC8" s="119"/>
-      <c r="CD8" s="119"/>
-      <c r="CE8" s="119"/>
-      <c r="CF8" s="119"/>
-      <c r="CG8" s="119"/>
-      <c r="CH8" s="119"/>
-      <c r="CI8" s="119"/>
-      <c r="CJ8" s="118"/>
-      <c r="CK8" s="118"/>
-      <c r="CL8" s="120"/>
-      <c r="CM8" s="118"/>
-      <c r="CN8" s="118"/>
-      <c r="CO8" s="118"/>
-      <c r="CP8" s="118"/>
-      <c r="CQ8" s="118"/>
-      <c r="CR8" s="118"/>
-      <c r="CS8" s="118"/>
-      <c r="CT8" s="118"/>
-      <c r="CU8" s="118"/>
-      <c r="CY8" s="138"/>
-    </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
-      <c r="B9" s="117"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="114"/>
+      <c r="AI8" s="114"/>
+      <c r="AJ8" s="114"/>
+      <c r="AK8" s="114"/>
+      <c r="AL8" s="114"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="114"/>
+      <c r="AS8" s="114"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="114"/>
+      <c r="AX8" s="114"/>
+      <c r="AY8" s="114"/>
+      <c r="AZ8" s="114"/>
+      <c r="BA8" s="114"/>
+      <c r="BB8" s="114"/>
+      <c r="BC8" s="114"/>
+      <c r="BD8" s="114"/>
+      <c r="BE8" s="114"/>
+      <c r="BF8" s="114"/>
+      <c r="BG8" s="114"/>
+      <c r="BH8" s="114"/>
+      <c r="BI8" s="114"/>
+      <c r="BJ8" s="114"/>
+      <c r="BK8" s="114"/>
+      <c r="BL8" s="114"/>
+      <c r="BM8" s="114"/>
+      <c r="BN8" s="114"/>
+      <c r="BO8" s="114"/>
+      <c r="BP8" s="114"/>
+      <c r="BQ8" s="114"/>
+      <c r="BR8" s="114"/>
+      <c r="BS8" s="114"/>
+      <c r="BT8" s="114"/>
+      <c r="BU8" s="114"/>
+      <c r="BV8" s="114"/>
+      <c r="BW8" s="114"/>
+      <c r="BX8" s="114"/>
+      <c r="BY8" s="114"/>
+      <c r="BZ8" s="114"/>
+      <c r="CA8" s="114"/>
+      <c r="CB8" s="114"/>
+      <c r="CC8" s="114"/>
+      <c r="CD8" s="115"/>
+      <c r="CE8" s="115"/>
+      <c r="CF8" s="115"/>
+      <c r="CG8" s="115"/>
+      <c r="CH8" s="115"/>
+      <c r="CI8" s="115"/>
+      <c r="CJ8" s="115"/>
+      <c r="CK8" s="115"/>
+      <c r="CL8" s="114"/>
+      <c r="CM8" s="114"/>
+      <c r="CN8" s="116"/>
+      <c r="CO8" s="114"/>
+      <c r="CP8" s="114"/>
+      <c r="CQ8" s="114"/>
+      <c r="CR8" s="114"/>
+      <c r="CS8" s="114"/>
+      <c r="CT8" s="114"/>
+      <c r="CU8" s="114"/>
+      <c r="CV8" s="114"/>
+      <c r="CW8" s="114"/>
+      <c r="DF8" s="22"/>
+    </row>
+    <row r="9" spans="1:119">
+      <c r="A9" s="130"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="118"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="118"/>
-      <c r="AB9" s="118"/>
-      <c r="AC9" s="118"/>
-      <c r="AD9" s="118"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="118"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="118"/>
-      <c r="AK9" s="118"/>
-      <c r="AL9" s="118"/>
-      <c r="AP9" s="118"/>
-      <c r="AQ9" s="118"/>
-      <c r="AR9" s="118"/>
-      <c r="AS9" s="118"/>
-      <c r="AT9" s="118"/>
-      <c r="AU9" s="118"/>
-      <c r="AV9" s="118"/>
-      <c r="AW9" s="118"/>
-      <c r="AX9" s="118"/>
-      <c r="AY9" s="118"/>
-      <c r="AZ9" s="118"/>
-      <c r="BA9" s="118"/>
-      <c r="BB9" s="118"/>
-      <c r="BC9" s="118"/>
-      <c r="BD9" s="118"/>
-      <c r="BE9" s="118"/>
-      <c r="BF9" s="118"/>
-      <c r="BG9" s="118"/>
-      <c r="BH9" s="118"/>
-      <c r="BI9" s="118"/>
-      <c r="BJ9" s="118"/>
-      <c r="BK9" s="118"/>
-      <c r="BL9" s="118"/>
-      <c r="BM9" s="118"/>
-      <c r="BN9" s="118"/>
-      <c r="BO9" s="118"/>
-      <c r="BP9" s="118"/>
-      <c r="BQ9" s="118"/>
-      <c r="BR9" s="118"/>
-      <c r="BS9" s="118"/>
-      <c r="BT9" s="118"/>
-      <c r="BU9" s="118"/>
-      <c r="BV9" s="118"/>
-      <c r="BW9" s="118"/>
-      <c r="BX9" s="118"/>
-      <c r="BY9" s="118"/>
-      <c r="BZ9" s="118"/>
-      <c r="CA9" s="118"/>
-      <c r="CB9" s="118"/>
-      <c r="CC9" s="119"/>
-      <c r="CD9" s="119"/>
-      <c r="CE9" s="119"/>
-      <c r="CF9" s="119"/>
-      <c r="CG9" s="119"/>
-      <c r="CH9" s="119"/>
-      <c r="CI9" s="119"/>
-      <c r="CJ9" s="118"/>
-      <c r="CK9" s="118"/>
-      <c r="CL9" s="120"/>
-      <c r="CM9" s="118"/>
-      <c r="CN9" s="118"/>
-      <c r="CO9" s="118"/>
-      <c r="CP9" s="118"/>
-      <c r="CQ9" s="118"/>
-      <c r="CR9" s="118"/>
-      <c r="CS9" s="118"/>
-      <c r="CT9" s="118"/>
-      <c r="CU9" s="118"/>
-      <c r="CY9" s="138"/>
-    </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.3">
-      <c r="A10" s="132"/>
-      <c r="B10" s="117"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="114"/>
+      <c r="AB9" s="114"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="114"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="114"/>
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="114"/>
+      <c r="AJ9" s="114"/>
+      <c r="AK9" s="114"/>
+      <c r="AL9" s="114"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
+      <c r="AX9" s="114"/>
+      <c r="AY9" s="114"/>
+      <c r="AZ9" s="114"/>
+      <c r="BA9" s="114"/>
+      <c r="BB9" s="114"/>
+      <c r="BC9" s="114"/>
+      <c r="BD9" s="114"/>
+      <c r="BE9" s="114"/>
+      <c r="BF9" s="114"/>
+      <c r="BG9" s="114"/>
+      <c r="BH9" s="114"/>
+      <c r="BI9" s="114"/>
+      <c r="BJ9" s="114"/>
+      <c r="BK9" s="114"/>
+      <c r="BL9" s="114"/>
+      <c r="BM9" s="114"/>
+      <c r="BN9" s="114"/>
+      <c r="BO9" s="114"/>
+      <c r="BP9" s="114"/>
+      <c r="BQ9" s="114"/>
+      <c r="BR9" s="114"/>
+      <c r="BS9" s="114"/>
+      <c r="BT9" s="114"/>
+      <c r="BU9" s="114"/>
+      <c r="BV9" s="114"/>
+      <c r="BW9" s="114"/>
+      <c r="BX9" s="114"/>
+      <c r="BY9" s="114"/>
+      <c r="BZ9" s="114"/>
+      <c r="CA9" s="114"/>
+      <c r="CB9" s="114"/>
+      <c r="CC9" s="114"/>
+      <c r="CD9" s="115"/>
+      <c r="CE9" s="115"/>
+      <c r="CF9" s="115"/>
+      <c r="CG9" s="115"/>
+      <c r="CH9" s="115"/>
+      <c r="CI9" s="115"/>
+      <c r="CJ9" s="115"/>
+      <c r="CK9" s="115"/>
+      <c r="CL9" s="114"/>
+      <c r="CM9" s="114"/>
+      <c r="CN9" s="116"/>
+      <c r="CO9" s="114"/>
+      <c r="CP9" s="114"/>
+      <c r="CQ9" s="114"/>
+      <c r="CR9" s="114"/>
+      <c r="CS9" s="114"/>
+      <c r="CT9" s="114"/>
+      <c r="CU9" s="114"/>
+      <c r="CV9" s="114"/>
+      <c r="CW9" s="114"/>
+      <c r="DF9" s="22"/>
+    </row>
+    <row r="10" spans="1:119">
+      <c r="A10" s="130"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="118"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="118"/>
-      <c r="AP10" s="118"/>
-      <c r="AQ10" s="118"/>
-      <c r="AR10" s="118"/>
-      <c r="AS10" s="118"/>
-      <c r="AT10" s="118"/>
-      <c r="AU10" s="118"/>
-      <c r="AV10" s="118"/>
-      <c r="AW10" s="118"/>
-      <c r="AX10" s="118"/>
-      <c r="AY10" s="118"/>
-      <c r="AZ10" s="118"/>
-      <c r="BA10" s="118"/>
-      <c r="BB10" s="118"/>
-      <c r="BC10" s="118"/>
-      <c r="BD10" s="118"/>
-      <c r="BE10" s="118"/>
-      <c r="BF10" s="118"/>
-      <c r="BG10" s="118"/>
-      <c r="BH10" s="118"/>
-      <c r="BI10" s="118"/>
-      <c r="BJ10" s="118"/>
-      <c r="BK10" s="118"/>
-      <c r="BL10" s="118"/>
-      <c r="BM10" s="118"/>
-      <c r="BN10" s="118"/>
-      <c r="BO10" s="118"/>
-      <c r="BP10" s="118"/>
-      <c r="BQ10" s="118"/>
-      <c r="BR10" s="118"/>
-      <c r="BS10" s="118"/>
-      <c r="BT10" s="118"/>
-      <c r="BU10" s="118"/>
-      <c r="BV10" s="118"/>
-      <c r="BW10" s="118"/>
-      <c r="BX10" s="118"/>
-      <c r="BY10" s="118"/>
-      <c r="BZ10" s="118"/>
-      <c r="CA10" s="118"/>
-      <c r="CB10" s="118"/>
-      <c r="CC10" s="119"/>
-      <c r="CD10" s="119"/>
-      <c r="CE10" s="119"/>
-      <c r="CF10" s="119"/>
-      <c r="CG10" s="119"/>
-      <c r="CH10" s="119"/>
-      <c r="CI10" s="119"/>
-      <c r="CJ10" s="118"/>
-      <c r="CK10" s="118"/>
-      <c r="CL10" s="120"/>
-      <c r="CM10" s="118"/>
-      <c r="CN10" s="118"/>
-      <c r="CO10" s="118"/>
-      <c r="CP10" s="118"/>
-      <c r="CQ10" s="118"/>
-      <c r="CR10" s="118"/>
-      <c r="CS10" s="118"/>
-      <c r="CT10" s="118"/>
-      <c r="CU10" s="118"/>
-      <c r="CY10" s="138"/>
-    </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.3">
-      <c r="A11" s="132"/>
-      <c r="B11" s="117"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
+      <c r="AX10" s="114"/>
+      <c r="AY10" s="114"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="114"/>
+      <c r="BC10" s="114"/>
+      <c r="BD10" s="114"/>
+      <c r="BE10" s="114"/>
+      <c r="BF10" s="114"/>
+      <c r="BG10" s="114"/>
+      <c r="BH10" s="114"/>
+      <c r="BI10" s="114"/>
+      <c r="BJ10" s="114"/>
+      <c r="BK10" s="114"/>
+      <c r="BL10" s="114"/>
+      <c r="BM10" s="114"/>
+      <c r="BN10" s="114"/>
+      <c r="BO10" s="114"/>
+      <c r="BP10" s="114"/>
+      <c r="BQ10" s="114"/>
+      <c r="BR10" s="114"/>
+      <c r="BS10" s="114"/>
+      <c r="BT10" s="114"/>
+      <c r="BU10" s="114"/>
+      <c r="BV10" s="114"/>
+      <c r="BW10" s="114"/>
+      <c r="BX10" s="114"/>
+      <c r="BY10" s="114"/>
+      <c r="BZ10" s="114"/>
+      <c r="CA10" s="114"/>
+      <c r="CB10" s="114"/>
+      <c r="CC10" s="114"/>
+      <c r="CD10" s="115"/>
+      <c r="CE10" s="115"/>
+      <c r="CF10" s="115"/>
+      <c r="CG10" s="115"/>
+      <c r="CH10" s="115"/>
+      <c r="CI10" s="115"/>
+      <c r="CJ10" s="115"/>
+      <c r="CK10" s="115"/>
+      <c r="CL10" s="114"/>
+      <c r="CM10" s="114"/>
+      <c r="CN10" s="116"/>
+      <c r="CO10" s="114"/>
+      <c r="CP10" s="114"/>
+      <c r="CQ10" s="114"/>
+      <c r="CR10" s="114"/>
+      <c r="CS10" s="114"/>
+      <c r="CT10" s="114"/>
+      <c r="CU10" s="114"/>
+      <c r="CV10" s="114"/>
+      <c r="CW10" s="114"/>
+      <c r="DF10" s="22"/>
+    </row>
+    <row r="11" spans="1:119">
+      <c r="A11" s="130"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="118"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="118"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="118"/>
-      <c r="AR11" s="118"/>
-      <c r="AS11" s="118"/>
-      <c r="AT11" s="118"/>
-      <c r="AU11" s="118"/>
-      <c r="AV11" s="118"/>
-      <c r="AW11" s="118"/>
-      <c r="AX11" s="118"/>
-      <c r="AY11" s="118"/>
-      <c r="AZ11" s="118"/>
-      <c r="BA11" s="118"/>
-      <c r="BB11" s="118"/>
-      <c r="BC11" s="118"/>
-      <c r="BD11" s="118"/>
-      <c r="BE11" s="118"/>
-      <c r="BF11" s="118"/>
-      <c r="BG11" s="118"/>
-      <c r="BH11" s="118"/>
-      <c r="BI11" s="118"/>
-      <c r="BJ11" s="118"/>
-      <c r="BK11" s="118"/>
-      <c r="BL11" s="118"/>
-      <c r="BM11" s="118"/>
-      <c r="BN11" s="118"/>
-      <c r="BO11" s="118"/>
-      <c r="BP11" s="118"/>
-      <c r="BQ11" s="118"/>
-      <c r="BR11" s="118"/>
-      <c r="BS11" s="118"/>
-      <c r="BT11" s="118"/>
-      <c r="BU11" s="118"/>
-      <c r="BV11" s="118"/>
-      <c r="BW11" s="118"/>
-      <c r="BX11" s="118"/>
-      <c r="BY11" s="118"/>
-      <c r="BZ11" s="118"/>
-      <c r="CA11" s="118"/>
-      <c r="CB11" s="118"/>
-      <c r="CC11" s="119"/>
-      <c r="CD11" s="119"/>
-      <c r="CE11" s="119"/>
-      <c r="CF11" s="119"/>
-      <c r="CG11" s="119"/>
-      <c r="CH11" s="119"/>
-      <c r="CI11" s="119"/>
-      <c r="CJ11" s="118"/>
-      <c r="CK11" s="118"/>
-      <c r="CL11" s="120"/>
-      <c r="CM11" s="118"/>
-      <c r="CN11" s="118"/>
-      <c r="CO11" s="118"/>
-      <c r="CP11" s="118"/>
-      <c r="CQ11" s="118"/>
-      <c r="CR11" s="118"/>
-      <c r="CS11" s="118"/>
-      <c r="CT11" s="118"/>
-      <c r="CU11" s="118"/>
-      <c r="CY11" s="138"/>
-    </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
-      <c r="B12" s="117"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="114"/>
+      <c r="AE11" s="114"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="114"/>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="114"/>
+      <c r="AJ11" s="114"/>
+      <c r="AK11" s="114"/>
+      <c r="AL11" s="114"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="114"/>
+      <c r="AY11" s="114"/>
+      <c r="AZ11" s="114"/>
+      <c r="BA11" s="114"/>
+      <c r="BB11" s="114"/>
+      <c r="BC11" s="114"/>
+      <c r="BD11" s="114"/>
+      <c r="BE11" s="114"/>
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="114"/>
+      <c r="BH11" s="114"/>
+      <c r="BI11" s="114"/>
+      <c r="BJ11" s="114"/>
+      <c r="BK11" s="114"/>
+      <c r="BL11" s="114"/>
+      <c r="BM11" s="114"/>
+      <c r="BN11" s="114"/>
+      <c r="BO11" s="114"/>
+      <c r="BP11" s="114"/>
+      <c r="BQ11" s="114"/>
+      <c r="BR11" s="114"/>
+      <c r="BS11" s="114"/>
+      <c r="BT11" s="114"/>
+      <c r="BU11" s="114"/>
+      <c r="BV11" s="114"/>
+      <c r="BW11" s="114"/>
+      <c r="BX11" s="114"/>
+      <c r="BY11" s="114"/>
+      <c r="BZ11" s="114"/>
+      <c r="CA11" s="114"/>
+      <c r="CB11" s="114"/>
+      <c r="CC11" s="114"/>
+      <c r="CD11" s="115"/>
+      <c r="CE11" s="115"/>
+      <c r="CF11" s="115"/>
+      <c r="CG11" s="115"/>
+      <c r="CH11" s="115"/>
+      <c r="CI11" s="115"/>
+      <c r="CJ11" s="115"/>
+      <c r="CK11" s="115"/>
+      <c r="CL11" s="114"/>
+      <c r="CM11" s="114"/>
+      <c r="CN11" s="116"/>
+      <c r="CO11" s="114"/>
+      <c r="CP11" s="114"/>
+      <c r="CQ11" s="114"/>
+      <c r="CR11" s="114"/>
+      <c r="CS11" s="114"/>
+      <c r="CT11" s="114"/>
+      <c r="CU11" s="114"/>
+      <c r="CV11" s="114"/>
+      <c r="CW11" s="114"/>
+      <c r="DF11" s="22"/>
+    </row>
+    <row r="12" spans="1:119">
+      <c r="A12" s="130"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="118"/>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="118"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AP12" s="118"/>
-      <c r="AQ12" s="118"/>
-      <c r="AR12" s="118"/>
-      <c r="AS12" s="118"/>
-      <c r="AT12" s="118"/>
-      <c r="AU12" s="118"/>
-      <c r="AV12" s="118"/>
-      <c r="AW12" s="118"/>
-      <c r="AX12" s="118"/>
-      <c r="AY12" s="118"/>
-      <c r="AZ12" s="118"/>
-      <c r="BA12" s="118"/>
-      <c r="BB12" s="118"/>
-      <c r="BC12" s="118"/>
-      <c r="BD12" s="118"/>
-      <c r="BE12" s="118"/>
-      <c r="BF12" s="118"/>
-      <c r="BG12" s="118"/>
-      <c r="BH12" s="118"/>
-      <c r="BI12" s="118"/>
-      <c r="BJ12" s="118"/>
-      <c r="BK12" s="118"/>
-      <c r="BL12" s="118"/>
-      <c r="BM12" s="118"/>
-      <c r="BN12" s="118"/>
-      <c r="BO12" s="118"/>
-      <c r="BP12" s="118"/>
-      <c r="BQ12" s="118"/>
-      <c r="BR12" s="118"/>
-      <c r="BS12" s="118"/>
-      <c r="BT12" s="118"/>
-      <c r="BU12" s="118"/>
-      <c r="BV12" s="118"/>
-      <c r="BW12" s="118"/>
-      <c r="BX12" s="118"/>
-      <c r="BY12" s="118"/>
-      <c r="BZ12" s="118"/>
-      <c r="CA12" s="118"/>
-      <c r="CB12" s="118"/>
-      <c r="CC12" s="119"/>
-      <c r="CD12" s="119"/>
-      <c r="CE12" s="119"/>
-      <c r="CF12" s="119"/>
-      <c r="CG12" s="119"/>
-      <c r="CH12" s="119"/>
-      <c r="CI12" s="119"/>
-      <c r="CJ12" s="118"/>
-      <c r="CK12" s="118"/>
-      <c r="CL12" s="120"/>
-      <c r="CM12" s="118"/>
-      <c r="CN12" s="118"/>
-      <c r="CO12" s="118"/>
-      <c r="CP12" s="118"/>
-      <c r="CQ12" s="118"/>
-      <c r="CR12" s="118"/>
-      <c r="CS12" s="118"/>
-      <c r="CT12" s="118"/>
-      <c r="CU12" s="118"/>
-      <c r="CY12" s="138"/>
-    </row>
-    <row r="13" spans="1:114" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="132"/>
-      <c r="B13" s="117"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="114"/>
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="114"/>
+      <c r="AL12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="114"/>
+      <c r="AY12" s="114"/>
+      <c r="AZ12" s="114"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="114"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="114"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="114"/>
+      <c r="BI12" s="114"/>
+      <c r="BJ12" s="114"/>
+      <c r="BK12" s="114"/>
+      <c r="BL12" s="114"/>
+      <c r="BM12" s="114"/>
+      <c r="BN12" s="114"/>
+      <c r="BO12" s="114"/>
+      <c r="BP12" s="114"/>
+      <c r="BQ12" s="114"/>
+      <c r="BR12" s="114"/>
+      <c r="BS12" s="114"/>
+      <c r="BT12" s="114"/>
+      <c r="BU12" s="114"/>
+      <c r="BV12" s="114"/>
+      <c r="BW12" s="114"/>
+      <c r="BX12" s="114"/>
+      <c r="BY12" s="114"/>
+      <c r="BZ12" s="114"/>
+      <c r="CA12" s="114"/>
+      <c r="CB12" s="114"/>
+      <c r="CC12" s="114"/>
+      <c r="CD12" s="115"/>
+      <c r="CE12" s="115"/>
+      <c r="CF12" s="115"/>
+      <c r="CG12" s="115"/>
+      <c r="CH12" s="115"/>
+      <c r="CI12" s="115"/>
+      <c r="CJ12" s="115"/>
+      <c r="CK12" s="115"/>
+      <c r="CL12" s="114"/>
+      <c r="CM12" s="114"/>
+      <c r="CN12" s="116"/>
+      <c r="CO12" s="114"/>
+      <c r="CP12" s="114"/>
+      <c r="CQ12" s="114"/>
+      <c r="CR12" s="114"/>
+      <c r="CS12" s="114"/>
+      <c r="CT12" s="114"/>
+      <c r="CU12" s="114"/>
+      <c r="CV12" s="114"/>
+      <c r="CW12" s="114"/>
+      <c r="DF12" s="22"/>
+    </row>
+    <row r="13" spans="1:119" ht="30" customHeight="1">
+      <c r="A13" s="130"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="118"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="118"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="118"/>
-      <c r="AL13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="118"/>
-      <c r="AT13" s="118"/>
-      <c r="AU13" s="118"/>
-      <c r="AV13" s="118"/>
-      <c r="AW13" s="118"/>
-      <c r="AX13" s="118"/>
-      <c r="AY13" s="118"/>
-      <c r="AZ13" s="118"/>
-      <c r="BA13" s="118"/>
-      <c r="BB13" s="118"/>
-      <c r="BC13" s="118"/>
-      <c r="BD13" s="118"/>
-      <c r="BE13" s="118"/>
-      <c r="BF13" s="118"/>
-      <c r="BG13" s="118"/>
-      <c r="BH13" s="118"/>
-      <c r="BI13" s="118"/>
-      <c r="BJ13" s="118"/>
-      <c r="BK13" s="118"/>
-      <c r="BL13" s="118"/>
-      <c r="BM13" s="118"/>
-      <c r="BN13" s="118"/>
-      <c r="BO13" s="118"/>
-      <c r="BP13" s="118"/>
-      <c r="BQ13" s="118"/>
-      <c r="BR13" s="118"/>
-      <c r="BS13" s="118"/>
-      <c r="BT13" s="118"/>
-      <c r="BU13" s="118"/>
-      <c r="BV13" s="118"/>
-      <c r="BW13" s="118"/>
-      <c r="BX13" s="118"/>
-      <c r="BY13" s="118"/>
-      <c r="BZ13" s="118"/>
-      <c r="CA13" s="118"/>
-      <c r="CB13" s="118"/>
-      <c r="CC13" s="119"/>
-      <c r="CD13" s="119"/>
-      <c r="CE13" s="119"/>
-      <c r="CF13" s="119"/>
-      <c r="CG13" s="119"/>
-      <c r="CH13" s="119"/>
-      <c r="CI13" s="119"/>
-      <c r="CJ13" s="118"/>
-      <c r="CK13" s="118"/>
-      <c r="CL13" s="120"/>
-      <c r="CM13" s="118"/>
-      <c r="CN13" s="118"/>
-      <c r="CO13" s="118"/>
-      <c r="CP13" s="118"/>
-      <c r="CQ13" s="118"/>
-      <c r="CR13" s="118"/>
-      <c r="CS13" s="118"/>
-      <c r="CT13" s="118"/>
-      <c r="CU13" s="118"/>
-      <c r="CY13" s="138"/>
-    </row>
-    <row r="14" spans="1:114" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132"/>
-      <c r="B14" s="117"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="114"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="114"/>
+      <c r="BI13" s="114"/>
+      <c r="BJ13" s="114"/>
+      <c r="BK13" s="114"/>
+      <c r="BL13" s="114"/>
+      <c r="BM13" s="114"/>
+      <c r="BN13" s="114"/>
+      <c r="BO13" s="114"/>
+      <c r="BP13" s="114"/>
+      <c r="BQ13" s="114"/>
+      <c r="BR13" s="114"/>
+      <c r="BS13" s="114"/>
+      <c r="BT13" s="114"/>
+      <c r="BU13" s="114"/>
+      <c r="BV13" s="114"/>
+      <c r="BW13" s="114"/>
+      <c r="BX13" s="114"/>
+      <c r="BY13" s="114"/>
+      <c r="BZ13" s="114"/>
+      <c r="CA13" s="114"/>
+      <c r="CB13" s="114"/>
+      <c r="CC13" s="114"/>
+      <c r="CD13" s="115"/>
+      <c r="CE13" s="115"/>
+      <c r="CF13" s="115"/>
+      <c r="CG13" s="115"/>
+      <c r="CH13" s="115"/>
+      <c r="CI13" s="115"/>
+      <c r="CJ13" s="115"/>
+      <c r="CK13" s="115"/>
+      <c r="CL13" s="114"/>
+      <c r="CM13" s="114"/>
+      <c r="CN13" s="116"/>
+      <c r="CO13" s="114"/>
+      <c r="CP13" s="114"/>
+      <c r="CQ13" s="114"/>
+      <c r="CR13" s="114"/>
+      <c r="CS13" s="114"/>
+      <c r="CT13" s="114"/>
+      <c r="CU13" s="114"/>
+      <c r="CV13" s="114"/>
+      <c r="CW13" s="114"/>
+      <c r="DF13" s="22"/>
+    </row>
+    <row r="14" spans="1:119" ht="30" customHeight="1">
+      <c r="A14" s="130"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="118"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="118"/>
-      <c r="AG14" s="118"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
-      <c r="AS14" s="118"/>
-      <c r="AT14" s="118"/>
-      <c r="AU14" s="118"/>
-      <c r="AV14" s="118"/>
-      <c r="AW14" s="118"/>
-      <c r="AX14" s="118"/>
-      <c r="AY14" s="118"/>
-      <c r="AZ14" s="118"/>
-      <c r="BA14" s="118"/>
-      <c r="BB14" s="118"/>
-      <c r="BC14" s="118"/>
-      <c r="BD14" s="118"/>
-      <c r="BE14" s="118"/>
-      <c r="BF14" s="118"/>
-      <c r="BG14" s="118"/>
-      <c r="BH14" s="118"/>
-      <c r="BI14" s="118"/>
-      <c r="BJ14" s="118"/>
-      <c r="BK14" s="118"/>
-      <c r="BL14" s="118"/>
-      <c r="BM14" s="118"/>
-      <c r="BN14" s="118"/>
-      <c r="BO14" s="118"/>
-      <c r="BP14" s="118"/>
-      <c r="BQ14" s="118"/>
-      <c r="BR14" s="118"/>
-      <c r="BS14" s="118"/>
-      <c r="BT14" s="118"/>
-      <c r="BU14" s="118"/>
-      <c r="BV14" s="118"/>
-      <c r="BW14" s="118"/>
-      <c r="BX14" s="118"/>
-      <c r="BY14" s="118"/>
-      <c r="BZ14" s="118"/>
-      <c r="CA14" s="118"/>
-      <c r="CB14" s="118"/>
-      <c r="CC14" s="119"/>
-      <c r="CD14" s="119"/>
-      <c r="CE14" s="119"/>
-      <c r="CF14" s="119"/>
-      <c r="CG14" s="119"/>
-      <c r="CH14" s="119"/>
-      <c r="CI14" s="119"/>
-      <c r="CJ14" s="118"/>
-      <c r="CK14" s="118"/>
-      <c r="CL14" s="120"/>
-      <c r="CM14" s="118"/>
-      <c r="CN14" s="118"/>
-      <c r="CO14" s="118"/>
-      <c r="CP14" s="118"/>
-      <c r="CQ14" s="118"/>
-      <c r="CR14" s="118"/>
-      <c r="CS14" s="118"/>
-      <c r="CT14" s="118"/>
-      <c r="CU14" s="137"/>
-      <c r="CY14" s="138"/>
-    </row>
-    <row r="15" spans="1:114" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="132"/>
-      <c r="B15" s="117"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="114"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="114"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
+      <c r="BI14" s="114"/>
+      <c r="BJ14" s="114"/>
+      <c r="BK14" s="114"/>
+      <c r="BL14" s="114"/>
+      <c r="BM14" s="114"/>
+      <c r="BN14" s="114"/>
+      <c r="BO14" s="114"/>
+      <c r="BP14" s="114"/>
+      <c r="BQ14" s="114"/>
+      <c r="BR14" s="114"/>
+      <c r="BS14" s="114"/>
+      <c r="BT14" s="114"/>
+      <c r="BU14" s="114"/>
+      <c r="BV14" s="114"/>
+      <c r="BW14" s="114"/>
+      <c r="BX14" s="114"/>
+      <c r="BY14" s="114"/>
+      <c r="BZ14" s="114"/>
+      <c r="CA14" s="114"/>
+      <c r="CB14" s="114"/>
+      <c r="CC14" s="114"/>
+      <c r="CD14" s="115"/>
+      <c r="CE14" s="115"/>
+      <c r="CF14" s="115"/>
+      <c r="CG14" s="115"/>
+      <c r="CH14" s="115"/>
+      <c r="CI14" s="115"/>
+      <c r="CJ14" s="115"/>
+      <c r="CK14" s="115"/>
+      <c r="CL14" s="114"/>
+      <c r="CM14" s="114"/>
+      <c r="CN14" s="116"/>
+      <c r="CO14" s="114"/>
+      <c r="CP14" s="114"/>
+      <c r="CQ14" s="114"/>
+      <c r="CR14" s="114"/>
+      <c r="CS14" s="114"/>
+      <c r="CT14" s="114"/>
+      <c r="CU14" s="114"/>
+      <c r="CV14" s="114"/>
+      <c r="CW14" s="121"/>
+      <c r="DF14" s="22"/>
+    </row>
+    <row r="15" spans="1:119" ht="30" customHeight="1">
+      <c r="A15" s="130"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="118"/>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="118"/>
-      <c r="AW15" s="118"/>
-      <c r="AX15" s="118"/>
-      <c r="AY15" s="118"/>
-      <c r="AZ15" s="118"/>
-      <c r="BA15" s="118"/>
-      <c r="BB15" s="118"/>
-      <c r="BC15" s="118"/>
-      <c r="BD15" s="118"/>
-      <c r="BE15" s="118"/>
-      <c r="BF15" s="118"/>
-      <c r="BG15" s="118"/>
-      <c r="BH15" s="118"/>
-      <c r="BI15" s="118"/>
-      <c r="BJ15" s="118"/>
-      <c r="BK15" s="118"/>
-      <c r="BL15" s="118"/>
-      <c r="BM15" s="118"/>
-      <c r="BN15" s="118"/>
-      <c r="BO15" s="118"/>
-      <c r="BP15" s="118"/>
-      <c r="BQ15" s="118"/>
-      <c r="BR15" s="118"/>
-      <c r="BS15" s="118"/>
-      <c r="BT15" s="118"/>
-      <c r="BU15" s="118"/>
-      <c r="BV15" s="118"/>
-      <c r="BW15" s="118"/>
-      <c r="BX15" s="118"/>
-      <c r="BY15" s="118"/>
-      <c r="BZ15" s="118"/>
-      <c r="CA15" s="118"/>
-      <c r="CB15" s="118"/>
-      <c r="CC15" s="119"/>
-      <c r="CD15" s="119"/>
-      <c r="CE15" s="119"/>
-      <c r="CF15" s="119"/>
-      <c r="CG15" s="119"/>
-      <c r="CH15" s="119"/>
-      <c r="CI15" s="119"/>
-      <c r="CJ15" s="118"/>
-      <c r="CK15" s="118"/>
-      <c r="CL15" s="120"/>
-      <c r="CM15" s="118"/>
-      <c r="CN15" s="118"/>
-      <c r="CO15" s="118"/>
-      <c r="CP15" s="118"/>
-      <c r="CQ15" s="118"/>
-      <c r="CR15" s="118"/>
-      <c r="CS15" s="118"/>
-      <c r="CT15" s="118"/>
-      <c r="CU15" s="118"/>
-      <c r="CY15" s="138"/>
-    </row>
-    <row r="16" spans="1:114" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="133"/>
-      <c r="B16" s="121"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+      <c r="AX15" s="114"/>
+      <c r="AY15" s="114"/>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="114"/>
+      <c r="BG15" s="114"/>
+      <c r="BH15" s="114"/>
+      <c r="BI15" s="114"/>
+      <c r="BJ15" s="114"/>
+      <c r="BK15" s="114"/>
+      <c r="BL15" s="114"/>
+      <c r="BM15" s="114"/>
+      <c r="BN15" s="114"/>
+      <c r="BO15" s="114"/>
+      <c r="BP15" s="114"/>
+      <c r="BQ15" s="114"/>
+      <c r="BR15" s="114"/>
+      <c r="BS15" s="114"/>
+      <c r="BT15" s="114"/>
+      <c r="BU15" s="114"/>
+      <c r="BV15" s="114"/>
+      <c r="BW15" s="114"/>
+      <c r="BX15" s="114"/>
+      <c r="BY15" s="114"/>
+      <c r="BZ15" s="114"/>
+      <c r="CA15" s="114"/>
+      <c r="CB15" s="114"/>
+      <c r="CC15" s="114"/>
+      <c r="CD15" s="115"/>
+      <c r="CE15" s="115"/>
+      <c r="CF15" s="115"/>
+      <c r="CG15" s="115"/>
+      <c r="CH15" s="115"/>
+      <c r="CI15" s="115"/>
+      <c r="CJ15" s="115"/>
+      <c r="CK15" s="115"/>
+      <c r="CL15" s="114"/>
+      <c r="CM15" s="114"/>
+      <c r="CN15" s="116"/>
+      <c r="CO15" s="114"/>
+      <c r="CP15" s="114"/>
+      <c r="CQ15" s="114"/>
+      <c r="CR15" s="114"/>
+      <c r="CS15" s="114"/>
+      <c r="CT15" s="114"/>
+      <c r="CU15" s="114"/>
+      <c r="CV15" s="114"/>
+      <c r="CW15" s="114"/>
+      <c r="DF15" s="22"/>
+    </row>
+    <row r="16" spans="1:119" ht="15" thickBot="1">
+      <c r="A16" s="131"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -6475,18 +6581,18 @@
       <c r="BZ16" s="11"/>
       <c r="CA16" s="11"/>
       <c r="CB16" s="11"/>
-      <c r="CC16" s="23"/>
+      <c r="CC16" s="11"/>
       <c r="CD16" s="23"/>
       <c r="CE16" s="23"/>
       <c r="CF16" s="23"/>
       <c r="CG16" s="23"/>
       <c r="CH16" s="23"/>
       <c r="CI16" s="23"/>
-      <c r="CJ16" s="11"/>
-      <c r="CK16" s="11"/>
-      <c r="CL16" s="24"/>
+      <c r="CJ16" s="23"/>
+      <c r="CK16" s="23"/>
+      <c r="CL16" s="11"/>
       <c r="CM16" s="11"/>
-      <c r="CN16" s="11"/>
+      <c r="CN16" s="24"/>
       <c r="CO16" s="11"/>
       <c r="CP16" s="11"/>
       <c r="CQ16" s="11"/>
@@ -6497,6 +6603,14 @@
       <c r="CV16" s="11"/>
       <c r="CW16" s="11"/>
       <c r="CX16" s="11"/>
+      <c r="CY16" s="11"/>
+      <c r="CZ16" s="11"/>
+      <c r="DA16" s="11"/>
+      <c r="DB16" s="11"/>
+      <c r="DC16" s="11"/>
+      <c r="DD16" s="11"/>
+      <c r="DE16" s="11"/>
+      <c r="DF16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6510,9 +6624,9 @@
     <hyperlink ref="BN5" r:id="rId5" xr:uid="{F7C048FD-09EA-724E-B724-28BA4335AFC3}"/>
     <hyperlink ref="BQ5" r:id="rId6" xr:uid="{FAAA2FCE-F985-EF4E-8DA0-0980AF438607}"/>
     <hyperlink ref="BS5" r:id="rId7" xr:uid="{2472F77D-0D01-9240-B1CA-0388E22B572E}"/>
-    <hyperlink ref="CO5" r:id="rId8" xr:uid="{4C0CE5FA-DAAF-4A41-A29B-D0C0ADD61B41}"/>
-    <hyperlink ref="CY5" r:id="rId9" xr:uid="{477122D6-EFFE-8545-A871-99B5C18803B2}"/>
-    <hyperlink ref="CZ5" r:id="rId10" xr:uid="{251D3D6B-DCC3-454C-B090-3E7D5AF2DBD7}"/>
+    <hyperlink ref="CR5" r:id="rId8" xr:uid="{4C0CE5FA-DAAF-4A41-A29B-D0C0ADD61B41}"/>
+    <hyperlink ref="DD5" r:id="rId9" xr:uid="{477122D6-EFFE-8545-A871-99B5C18803B2}"/>
+    <hyperlink ref="DE5" r:id="rId10" xr:uid="{251D3D6B-DCC3-454C-B090-3E7D5AF2DBD7}"/>
     <hyperlink ref="BE4" r:id="rId11" xr:uid="{AA1A1A7B-33DF-8D44-B599-B33BBA80DC72}"/>
     <hyperlink ref="T4" r:id="rId12" xr:uid="{B9C248DE-9D1E-7948-BF7F-1EE8771F724C}"/>
     <hyperlink ref="AP4" r:id="rId13" xr:uid="{80C25814-88B0-E647-8552-6B1AD7468039}"/>
@@ -6520,19 +6634,19 @@
     <hyperlink ref="AZ4" r:id="rId15" xr:uid="{8DDC6D69-03FE-DA4C-AEFE-5F98354F8FA0}"/>
     <hyperlink ref="BN4" r:id="rId16" xr:uid="{400235C6-9171-F645-A381-127F8C803DD7}"/>
     <hyperlink ref="BT4" r:id="rId17" xr:uid="{941FD8C7-3724-E240-855D-795DEE5451F9}"/>
-    <hyperlink ref="BX4" r:id="rId18" xr:uid="{A19C7694-4B2D-354D-908D-92FF30BC8D93}"/>
-    <hyperlink ref="CC4" r:id="rId19" xr:uid="{1EFAA103-155D-7943-92C5-851ECCA07C8B}"/>
-    <hyperlink ref="CH4" r:id="rId20" xr:uid="{23258132-F26F-6B42-ABF7-D927E61CF193}"/>
-    <hyperlink ref="CP5" r:id="rId21" xr:uid="{3CCFD31A-73E0-E34B-AA80-4CAD7B0A1FC4}"/>
-    <hyperlink ref="CX4" r:id="rId22" xr:uid="{558041B2-A965-E649-A225-34C37D169414}"/>
+    <hyperlink ref="BY4" r:id="rId18" xr:uid="{A19C7694-4B2D-354D-908D-92FF30BC8D93}"/>
+    <hyperlink ref="CD4" r:id="rId19" xr:uid="{1EFAA103-155D-7943-92C5-851ECCA07C8B}"/>
+    <hyperlink ref="CI4" r:id="rId20" xr:uid="{23258132-F26F-6B42-ABF7-D927E61CF193}"/>
+    <hyperlink ref="CS5" r:id="rId21" xr:uid="{3CCFD31A-73E0-E34B-AA80-4CAD7B0A1FC4}"/>
+    <hyperlink ref="DA4" r:id="rId22" xr:uid="{558041B2-A965-E649-A225-34C37D169414}"/>
     <hyperlink ref="AP5" r:id="rId23" xr:uid="{37C28CCF-D839-4644-BBA8-B4BF115FFC43}"/>
     <hyperlink ref="AU5" r:id="rId24" xr:uid="{AF318A6F-236C-8E45-930F-0FD264E26123}"/>
     <hyperlink ref="AZ5" r:id="rId25" xr:uid="{CD36CCFF-A874-7E44-B8C4-10B946CE9F45}"/>
     <hyperlink ref="BD5" r:id="rId26" xr:uid="{523A4600-7DEA-864B-84D9-794B2EF08414}"/>
     <hyperlink ref="BL5" r:id="rId27" xr:uid="{EC06017A-640E-5C4D-AC3F-649EF131F4DC}"/>
     <hyperlink ref="BT5" r:id="rId28" xr:uid="{4D39D371-FF8C-4142-9BDC-A5CA3B6346AB}"/>
-    <hyperlink ref="BX5" r:id="rId29" xr:uid="{75F3E4BD-FB46-D541-AD3B-0F3E827D1E47}"/>
-    <hyperlink ref="CH5" r:id="rId30" xr:uid="{A7CDCF74-FCA8-784E-965D-1975CF3F0C51}"/>
+    <hyperlink ref="BY5" r:id="rId29" xr:uid="{75F3E4BD-FB46-D541-AD3B-0F3E827D1E47}"/>
+    <hyperlink ref="CI5" r:id="rId30" xr:uid="{A7CDCF74-FCA8-784E-965D-1975CF3F0C51}"/>
     <hyperlink ref="X7" r:id="rId31" xr:uid="{DEDDAE08-0AAE-4347-BF7E-67CD2FED0C80}"/>
     <hyperlink ref="O4" r:id="rId32" xr:uid="{81439526-16B2-4649-B26E-7CAB25958493}"/>
     <hyperlink ref="N7" r:id="rId33" xr:uid="{DFB56A5B-2E5C-4BFF-870A-B2CC1F38B316}"/>
@@ -6550,37 +6664,43 @@
     <hyperlink ref="BE7" r:id="rId45" xr:uid="{6F6F85A1-13A7-4AFB-8D03-D885F67F016A}"/>
     <hyperlink ref="BS4" r:id="rId46" xr:uid="{BEEF1A60-BE66-41EF-A997-ED4FDEEF4D3C}"/>
     <hyperlink ref="BS7" r:id="rId47" xr:uid="{E3E552F4-EDC4-4542-BA1F-FB34410A4998}"/>
-    <hyperlink ref="BU4" r:id="rId48" xr:uid="{BC270A9B-2FE2-40BA-99AF-5D562426101A}"/>
-    <hyperlink ref="BY4" r:id="rId49" xr:uid="{E81829A6-023C-40F5-A3BF-2D33583DDEF3}"/>
-    <hyperlink ref="CC7" r:id="rId50" xr:uid="{CCBC7AEC-4749-425D-9AB3-7BE106016199}"/>
-    <hyperlink ref="CD4" r:id="rId51" xr:uid="{523047D7-FAA3-4EB7-A309-04262B300EA1}"/>
-    <hyperlink ref="CD7" r:id="rId52" xr:uid="{AA06E45F-21BB-422C-82B7-D23D4D0504D6}"/>
-    <hyperlink ref="CE4" r:id="rId53" xr:uid="{C825C98E-F4EE-486B-A2CF-4F1EE1FE5255}"/>
-    <hyperlink ref="CE7" r:id="rId54" xr:uid="{0B06EB56-890A-46F2-8604-FB1987ACA522}"/>
-    <hyperlink ref="CF7" r:id="rId55" xr:uid="{9B88F3F4-9FED-4F56-8CFD-1273386B8527}"/>
-    <hyperlink ref="CI4" r:id="rId56" xr:uid="{D59DDDCB-ED91-49D1-AE25-A0FB8AC5F636}"/>
-    <hyperlink ref="CI7" r:id="rId57" xr:uid="{B3BEBF0C-ED69-475C-B56F-BD7E606616AB}"/>
-    <hyperlink ref="CX7" r:id="rId58" xr:uid="{FC75F79B-2262-4BF1-B217-6CA528511D3F}"/>
+    <hyperlink ref="BV4" r:id="rId48" xr:uid="{BC270A9B-2FE2-40BA-99AF-5D562426101A}"/>
+    <hyperlink ref="BZ4" r:id="rId49" xr:uid="{E81829A6-023C-40F5-A3BF-2D33583DDEF3}"/>
+    <hyperlink ref="CD7" r:id="rId50" xr:uid="{CCBC7AEC-4749-425D-9AB3-7BE106016199}"/>
+    <hyperlink ref="CE4" r:id="rId51" xr:uid="{523047D7-FAA3-4EB7-A309-04262B300EA1}"/>
+    <hyperlink ref="CE7" r:id="rId52" xr:uid="{AA06E45F-21BB-422C-82B7-D23D4D0504D6}"/>
+    <hyperlink ref="CF4" r:id="rId53" xr:uid="{C825C98E-F4EE-486B-A2CF-4F1EE1FE5255}"/>
+    <hyperlink ref="CF7" r:id="rId54" xr:uid="{0B06EB56-890A-46F2-8604-FB1987ACA522}"/>
+    <hyperlink ref="CG7" r:id="rId55" xr:uid="{9B88F3F4-9FED-4F56-8CFD-1273386B8527}"/>
+    <hyperlink ref="CK4" r:id="rId56" xr:uid="{D59DDDCB-ED91-49D1-AE25-A0FB8AC5F636}"/>
+    <hyperlink ref="CK7" r:id="rId57" xr:uid="{B3BEBF0C-ED69-475C-B56F-BD7E606616AB}"/>
+    <hyperlink ref="DA7" r:id="rId58" xr:uid="{FC75F79B-2262-4BF1-B217-6CA528511D3F}"/>
     <hyperlink ref="O7" r:id="rId59" xr:uid="{06E668E3-1A65-4625-AE0F-337CB3137CDB}"/>
     <hyperlink ref="E5" r:id="rId60" xr:uid="{6CAD5124-56D1-4E52-9FE5-02E920670DD8}"/>
     <hyperlink ref="BG5" r:id="rId61" xr:uid="{61D159FB-14A7-4FD3-B828-A4F7836CE0F5}"/>
     <hyperlink ref="BH5" r:id="rId62" xr:uid="{7990268F-1921-42F1-8E55-E03D9236CCA4}"/>
     <hyperlink ref="BH4" r:id="rId63" xr:uid="{F386B100-990C-4BB2-9205-5FBFC8A20E62}"/>
-    <hyperlink ref="BZ7" r:id="rId64" xr:uid="{59CBAB2C-DCE0-4792-9CB1-BFA275524B60}"/>
-    <hyperlink ref="CL5" r:id="rId65" xr:uid="{DB3C9977-7320-4DDC-BA64-C9DCF325699C}"/>
-    <hyperlink ref="CM7" r:id="rId66" xr:uid="{5C496A0A-DA4B-451E-A06E-FDF5B6C8D3F6}"/>
-    <hyperlink ref="CM5" r:id="rId67" xr:uid="{CECD4E16-BFBA-4250-9E5C-D9CBB64EF4E8}"/>
-    <hyperlink ref="BJ7" r:id="rId68" xr:uid="{38510688-447B-4FFC-A637-9571C1CF9590}"/>
-    <hyperlink ref="CY4" r:id="rId69" xr:uid="{EE26747D-EE88-498A-AAB1-7C1524B95A20}"/>
-    <hyperlink ref="CN5" r:id="rId70" xr:uid="{FBFDCDD6-102A-4396-8F36-0D46B836836E}"/>
-    <hyperlink ref="BI5" r:id="rId71" xr:uid="{15CBE11E-E399-40D8-BBE3-7D3E8D683D07}"/>
-    <hyperlink ref="BI4" r:id="rId72" xr:uid="{13069A41-3727-4DF2-AE4C-93DD0711A5A9}"/>
-    <hyperlink ref="BO4" r:id="rId73" xr:uid="{7ACA7CEF-E53F-45DB-ADD2-791F68063120}"/>
-    <hyperlink ref="BO5" r:id="rId74" xr:uid="{A8B72900-B150-4089-82F7-A6A5B7853CD5}"/>
-    <hyperlink ref="BP7" r:id="rId75" xr:uid="{73618947-3022-41B1-AC30-A16CDABCADD1}"/>
+    <hyperlink ref="CA7" r:id="rId64" xr:uid="{59CBAB2C-DCE0-4792-9CB1-BFA275524B60}"/>
+    <hyperlink ref="CP7" r:id="rId65" xr:uid="{5C496A0A-DA4B-451E-A06E-FDF5B6C8D3F6}"/>
+    <hyperlink ref="CP5" r:id="rId66" xr:uid="{CECD4E16-BFBA-4250-9E5C-D9CBB64EF4E8}"/>
+    <hyperlink ref="BJ7" r:id="rId67" xr:uid="{38510688-447B-4FFC-A637-9571C1CF9590}"/>
+    <hyperlink ref="DD4" r:id="rId68" xr:uid="{EE26747D-EE88-498A-AAB1-7C1524B95A20}"/>
+    <hyperlink ref="BI5" r:id="rId69" xr:uid="{15CBE11E-E399-40D8-BBE3-7D3E8D683D07}"/>
+    <hyperlink ref="BI4" r:id="rId70" xr:uid="{13069A41-3727-4DF2-AE4C-93DD0711A5A9}"/>
+    <hyperlink ref="BO4" r:id="rId71" xr:uid="{7ACA7CEF-E53F-45DB-ADD2-791F68063120}"/>
+    <hyperlink ref="BO5" r:id="rId72" xr:uid="{A8B72900-B150-4089-82F7-A6A5B7853CD5}"/>
+    <hyperlink ref="BP7" r:id="rId73" xr:uid="{73618947-3022-41B1-AC30-A16CDABCADD1}"/>
+    <hyperlink ref="BU4" r:id="rId74" xr:uid="{F70078A7-1EA9-4B45-9D70-8FEAF2D2C800}"/>
+    <hyperlink ref="BU7" r:id="rId75" xr:uid="{16EB6305-8AB0-4C3E-BFE5-9881DF0EFC53}"/>
+    <hyperlink ref="CO4" r:id="rId76" xr:uid="{FB348149-4872-4129-971A-014F5B46E443}"/>
+    <hyperlink ref="CO5" r:id="rId77" xr:uid="{69432126-D40E-4337-B11A-1148FDBF1719}"/>
+    <hyperlink ref="CN5" r:id="rId78" xr:uid="{DA130682-6806-491D-9D32-C248CCCC0B4E}"/>
+    <hyperlink ref="CQ5" r:id="rId79" xr:uid="{B30C69E3-FBC9-470B-B347-E588EF1E8349}"/>
+    <hyperlink ref="DB5" r:id="rId80" xr:uid="{A9476D0E-C28A-4344-9FB9-AC3DC313B1DD}"/>
+    <hyperlink ref="DC7" r:id="rId81" xr:uid="{96DE6012-6302-4836-9A48-9A51CD5FC0D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId76"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId82"/>
 </worksheet>
 </file>
 
@@ -6593,7 +6713,7 @@
       <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="116.109375" customWidth="1"/>
@@ -6605,7 +6725,7 @@
     <col min="98" max="102" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:122" ht="52.2" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
@@ -6733,7 +6853,7 @@
       <c r="DQ1" s="94"/>
       <c r="DR1" s="94"/>
     </row>
-    <row r="2" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
@@ -6756,13 +6876,13 @@
         <v>33</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>50</v>
@@ -6786,7 +6906,7 @@
         <v>64</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="S2" s="37" t="s">
         <v>36</v>
@@ -6834,7 +6954,7 @@
         <v>175</v>
       </c>
       <c r="AH2" s="43" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AI2" s="43" t="s">
         <v>180</v>
@@ -6849,13 +6969,13 @@
         <v>209</v>
       </c>
       <c r="AM2" s="45" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AN2" s="45" t="s">
         <v>211</v>
       </c>
       <c r="AO2" s="45" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AP2" s="45" t="s">
         <v>214</v>
@@ -6879,7 +6999,7 @@
         <v>155</v>
       </c>
       <c r="AW2" s="47" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AX2" s="47" t="s">
         <v>161</v>
@@ -6888,7 +7008,7 @@
         <v>162</v>
       </c>
       <c r="AZ2" s="47" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BA2" s="47" t="s">
         <v>167</v>
@@ -6897,13 +7017,13 @@
         <v>74</v>
       </c>
       <c r="BC2" s="49" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="BD2" s="49" t="s">
         <v>79</v>
       </c>
       <c r="BE2" s="49" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="BF2" s="49" t="s">
         <v>86</v>
@@ -6918,7 +7038,7 @@
         <v>136</v>
       </c>
       <c r="BJ2" s="51" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="BK2" s="53" t="s">
         <v>189</v>
@@ -6933,22 +7053,22 @@
         <v>100</v>
       </c>
       <c r="BO2" s="55" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="BP2" s="55" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="BQ2" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="BR2" s="55" t="s">
         <v>103</v>
       </c>
       <c r="BS2" s="55" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="BT2" s="55" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="BU2" s="57" t="s">
         <v>100</v>
@@ -6957,7 +7077,7 @@
         <v>105</v>
       </c>
       <c r="BW2" s="57" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="BX2" s="57" t="s">
         <v>198</v>
@@ -6987,7 +7107,7 @@
         <v>105</v>
       </c>
       <c r="CG2" s="61" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="CH2" s="61" t="s">
         <v>103</v>
@@ -7101,7 +7221,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:122" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:122" ht="52.2" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
@@ -7463,7 +7583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:122" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:122" ht="52.2" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
@@ -7496,7 +7616,7 @@
         <v>65</v>
       </c>
       <c r="R4" s="37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -7529,7 +7649,7 @@
       <c r="AK4" s="46"/>
       <c r="AL4" s="46"/>
       <c r="AM4" s="45" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AN4" s="45"/>
       <c r="AO4" s="45" t="s">
@@ -7595,7 +7715,7 @@
         <v>106</v>
       </c>
       <c r="BQ4" s="56" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="BR4" s="56"/>
       <c r="BS4" s="56"/>
@@ -7607,7 +7727,7 @@
         <v>106</v>
       </c>
       <c r="BW4" s="58" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="BX4" s="58"/>
       <c r="BY4" s="58"/>
@@ -7629,7 +7749,7 @@
         <v>106</v>
       </c>
       <c r="CG4" s="62" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="CH4" s="61"/>
       <c r="CI4" s="61"/>
@@ -7683,7 +7803,7 @@
       <c r="DQ4" s="94"/>
       <c r="DR4" s="94"/>
     </row>
-    <row r="5" spans="1:122" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:122" ht="65.55" customHeight="1">
       <c r="A5" s="28" t="s">
         <v>45</v>
       </c>
@@ -8045,7 +8165,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
@@ -8068,16 +8188,16 @@
         <v>51</v>
       </c>
       <c r="H6" s="92" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I6" s="92" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K6" s="92" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L6" s="92" t="s">
         <v>24</v>
@@ -8098,7 +8218,7 @@
         <v>63</v>
       </c>
       <c r="R6" s="92" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="S6" s="92" t="s">
         <v>38</v>
@@ -8107,7 +8227,7 @@
         <v>66</v>
       </c>
       <c r="U6" s="92" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="V6" s="92" t="s">
         <v>66</v>
@@ -8159,7 +8279,7 @@
         <v>210</v>
       </c>
       <c r="AM6" s="92" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AN6" s="92" t="s">
         <v>212</v>
@@ -8240,19 +8360,19 @@
         <v>193</v>
       </c>
       <c r="BN6" s="92" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="BO6" s="92" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="BP6" s="92" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="BQ6" s="92" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="BR6" s="92" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="BS6" s="92" t="s">
         <v>171</v>
@@ -8264,16 +8384,16 @@
         <v>196</v>
       </c>
       <c r="BV6" s="92" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="BW6" s="92" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="BX6" s="92" t="s">
         <v>199</v>
       </c>
       <c r="BY6" s="92" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="BZ6" s="92" t="s">
         <v>200</v>
@@ -8297,7 +8417,7 @@
         <v>107</v>
       </c>
       <c r="CG6" s="92" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="CH6" s="92" t="s">
         <v>104</v>
@@ -8333,7 +8453,7 @@
         <v>249</v>
       </c>
       <c r="CS6" s="92" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="CT6" s="92" t="s">
         <v>126</v>
@@ -8409,8 +8529,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A7" s="134"/>
+    <row r="7" spans="1:122">
+      <c r="A7" s="132"/>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -8507,7 +8627,7 @@
       <c r="CQ7" s="18"/>
       <c r="CR7" s="18"/>
       <c r="CS7" s="102" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="CT7" s="18"/>
       <c r="CU7" s="18"/>
@@ -8535,8 +8655,8 @@
       <c r="DQ7" s="18"/>
       <c r="DR7" s="20"/>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A8" s="134"/>
+    <row r="8" spans="1:122">
+      <c r="A8" s="132"/>
       <c r="B8" s="6"/>
       <c r="C8" s="21"/>
       <c r="CJ8" s="16"/>
@@ -8545,13 +8665,13 @@
       <c r="CM8" s="16"/>
       <c r="CN8" s="16"/>
       <c r="CP8" s="9"/>
-      <c r="CS8" s="120"/>
+      <c r="CS8" s="116"/>
       <c r="CV8" s="16"/>
       <c r="CW8" s="9"/>
       <c r="DR8" s="22"/>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A9" s="134"/>
+    <row r="9" spans="1:122">
+      <c r="A9" s="132"/>
       <c r="B9" s="6"/>
       <c r="C9" s="21"/>
       <c r="CJ9" s="16"/>
@@ -8560,13 +8680,13 @@
       <c r="CM9" s="16"/>
       <c r="CN9" s="16"/>
       <c r="CP9" s="9"/>
-      <c r="CS9" s="120"/>
+      <c r="CS9" s="116"/>
       <c r="CV9" s="16"/>
       <c r="CW9" s="9"/>
       <c r="DR9" s="22"/>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A10" s="134"/>
+    <row r="10" spans="1:122">
+      <c r="A10" s="132"/>
       <c r="B10" s="6"/>
       <c r="C10" s="21"/>
       <c r="CJ10" s="16"/>
@@ -8575,13 +8695,13 @@
       <c r="CM10" s="16"/>
       <c r="CN10" s="16"/>
       <c r="CP10" s="9"/>
-      <c r="CS10" s="120"/>
+      <c r="CS10" s="116"/>
       <c r="CV10" s="16"/>
       <c r="CW10" s="9"/>
       <c r="DR10" s="22"/>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A11" s="134"/>
+    <row r="11" spans="1:122">
+      <c r="A11" s="132"/>
       <c r="B11" s="6"/>
       <c r="C11" s="21"/>
       <c r="CJ11" s="16"/>
@@ -8590,13 +8710,13 @@
       <c r="CM11" s="16"/>
       <c r="CN11" s="16"/>
       <c r="CP11" s="9"/>
-      <c r="CS11" s="120"/>
+      <c r="CS11" s="116"/>
       <c r="CV11" s="16"/>
       <c r="CW11" s="9"/>
       <c r="DR11" s="22"/>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A12" s="134"/>
+    <row r="12" spans="1:122">
+      <c r="A12" s="132"/>
       <c r="B12" s="6"/>
       <c r="C12" s="21"/>
       <c r="CJ12" s="16"/>
@@ -8605,13 +8725,13 @@
       <c r="CM12" s="16"/>
       <c r="CN12" s="16"/>
       <c r="CP12" s="9"/>
-      <c r="CS12" s="120"/>
+      <c r="CS12" s="116"/>
       <c r="CV12" s="16"/>
       <c r="CW12" s="9"/>
       <c r="DR12" s="22"/>
     </row>
-    <row r="13" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="134"/>
+    <row r="13" spans="1:122" ht="30" customHeight="1">
+      <c r="A13" s="132"/>
       <c r="B13" s="6"/>
       <c r="C13" s="21"/>
       <c r="CJ13" s="16"/>
@@ -8620,13 +8740,13 @@
       <c r="CM13" s="16"/>
       <c r="CN13" s="16"/>
       <c r="CP13" s="9"/>
-      <c r="CS13" s="120"/>
+      <c r="CS13" s="116"/>
       <c r="CV13" s="16"/>
       <c r="CW13" s="9"/>
       <c r="DR13" s="22"/>
     </row>
-    <row r="14" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134"/>
+    <row r="14" spans="1:122" ht="30" customHeight="1">
+      <c r="A14" s="132"/>
       <c r="B14" s="6"/>
       <c r="C14" s="21"/>
       <c r="CJ14" s="16"/>
@@ -8635,13 +8755,13 @@
       <c r="CM14" s="16"/>
       <c r="CN14" s="16"/>
       <c r="CP14" s="9"/>
-      <c r="CS14" s="120"/>
+      <c r="CS14" s="116"/>
       <c r="CV14" s="16"/>
       <c r="CW14" s="9"/>
       <c r="DR14" s="22"/>
     </row>
-    <row r="15" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="134"/>
+    <row r="15" spans="1:122" ht="30" customHeight="1">
+      <c r="A15" s="132"/>
       <c r="B15" s="6"/>
       <c r="C15" s="21"/>
       <c r="CJ15" s="16"/>
@@ -8650,13 +8770,13 @@
       <c r="CM15" s="16"/>
       <c r="CN15" s="16"/>
       <c r="CP15" s="9"/>
-      <c r="CS15" s="120"/>
+      <c r="CS15" s="116"/>
       <c r="CV15" s="16"/>
       <c r="CW15" s="9"/>
       <c r="DR15" s="22"/>
     </row>
-    <row r="16" spans="1:122" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="135"/>
+    <row r="16" spans="1:122" ht="15" thickBot="1">
+      <c r="A16" s="133"/>
       <c r="B16" s="7"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>

--- a/src/resources/Fhir_Cohort_Import_Template_Full_Sample.xlsx
+++ b/src/resources/Fhir_Cohort_Import_Template_Full_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mriley7\workspace\T21_Connectathon_Sets\Fhir_CohortPython_Generation\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D8768-D4D3-457A-9890-A693B35E08C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B029207C-DA81-4C0C-AB97-B2EEF7AD1A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" activeTab="3" xr2:uid="{B7CAF98F-F4CF-4673-A736-BDE9BA8D985C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" xr2:uid="{B7CAF98F-F4CF-4673-A736-BDE9BA8D985C}"/>
   </bookViews>
   <sheets>
     <sheet name="How To Use This Workbook" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="454">
   <si>
     <t>Data Element</t>
   </si>
@@ -1083,12 +1083,6 @@
   </si>
   <si>
     <t>http://snomed.info/sct^994005^Brush, device</t>
-  </si>
-  <si>
-    <t>49 Meadow St, Mounds^OK^74047^US</t>
-  </si>
-  <si>
-    <t>3300 Washtenaw Avenue Suite 227, Amherst^MA^01002^USA</t>
   </si>
   <si>
     <t>completed</t>
@@ -1217,12 +1211,6 @@
     <t>System^Code^Display</t>
   </si>
   <si>
-    <t>line,city,county^postalcode^state^country</t>
-  </si>
-  <si>
-    <t>49 Meadow St, Travals, Mounds^OK^74047^US</t>
-  </si>
-  <si>
     <t>Organization's Telecom System</t>
   </si>
   <si>
@@ -1398,6 +1386,15 @@
   </si>
   <si>
     <t>35^g</t>
+  </si>
+  <si>
+    <t>3300 Washtenaw Avenue Suite 227^Amherst^Erie^01002^MA^USA</t>
+  </si>
+  <si>
+    <t>49 Meadow St^Mounds^Creek^74047^OK^US</t>
+  </si>
+  <si>
+    <t>line^city^county^postalcode^state^country</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2335,27 +2332,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2374,14 +2369,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2741,163 +2742,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDBDB0D-33EF-4BF8-9FC7-FC7A4F2A324F}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="113.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="96.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.8">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="132" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="132"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="133" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+    </row>
+    <row r="3" spans="1:3" ht="103.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="124" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="125"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1">
-      <c r="A2" s="126" t="s">
+      <c r="B3" s="124"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="134" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-    </row>
-    <row r="3" spans="1:3" ht="103.5" customHeight="1" thickTop="1">
-      <c r="A3" s="123" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+    </row>
+    <row r="5" spans="1:3" ht="40.799999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="123"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1">
-      <c r="A4" s="127" t="s">
+      <c r="B5" s="126"/>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="121" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-    </row>
-    <row r="5" spans="1:3" ht="40.799999999999997" customHeight="1" thickTop="1">
-      <c r="A5" s="128" t="s">
+      <c r="B6" s="118" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="128"/>
-    </row>
-    <row r="6" spans="1:3" ht="43.2">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="121" t="s">
         <v>379</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B7" s="118" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="121" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B8" s="118" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="121" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B9" s="118" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="133" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+    </row>
+    <row r="11" spans="1:3" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="124" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1">
-      <c r="A10" s="126" t="s">
+      <c r="B11" s="124"/>
+    </row>
+    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="125" t="s">
         <v>387</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-    </row>
-    <row r="11" spans="1:3" ht="37.200000000000003" customHeight="1" thickTop="1">
-      <c r="A11" s="123" t="s">
+      <c r="B12" s="125"/>
+    </row>
+    <row r="13" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="125" t="s">
         <v>388</v>
       </c>
-      <c r="B11" s="123"/>
-    </row>
-    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
-      <c r="A12" s="124" t="s">
+      <c r="B13" s="125"/>
+    </row>
+    <row r="14" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="125" t="s">
         <v>389</v>
       </c>
-      <c r="B12" s="124"/>
-    </row>
-    <row r="13" spans="1:3" ht="37.200000000000003" customHeight="1">
-      <c r="A13" s="124" t="s">
+      <c r="B14" s="125"/>
+    </row>
+    <row r="15" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A15" s="135" t="s">
         <v>390</v>
       </c>
-      <c r="B13" s="124"/>
-    </row>
-    <row r="14" spans="1:3" ht="37.200000000000003" customHeight="1">
-      <c r="A14" s="124" t="s">
+      <c r="B15" s="135"/>
+      <c r="C15" s="135" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="136" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="118" t="s">
         <v>391</v>
       </c>
-      <c r="B14" s="124"/>
-    </row>
-    <row r="15" spans="1:3" ht="17.399999999999999">
-      <c r="A15" s="119" t="s">
-        <v>392</v>
-      </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="118" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="120" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="136" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>393</v>
-      </c>
-      <c r="C17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="120" t="s">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="136" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>394</v>
-      </c>
-      <c r="C18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="120" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="136" t="s">
         <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C19" t="s">
-        <v>424</v>
+        <v>421</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -2931,13 +2933,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="68.33203125" customWidth="1"/>
     <col min="4" max="4" width="68.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -2949,7 +2951,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="51" customHeight="1">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -2960,7 +2962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -2972,7 +2974,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>282</v>
       </c>
@@ -2984,7 +2986,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -2996,7 +2998,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>287</v>
       </c>
@@ -3008,7 +3010,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>289</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -3030,18 +3032,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -3052,7 +3054,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>324</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>325</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>326</v>
       </c>
@@ -3085,18 +3087,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>296</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>297</v>
       </c>
@@ -3104,21 +3106,21 @@
         <v>300</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>298</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>327</v>
       </c>
@@ -3129,7 +3131,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -3140,7 +3142,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>329</v>
       </c>
@@ -3151,19 +3153,19 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
   </sheetData>
@@ -3191,12 +3193,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="28.8">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3218,7 +3220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>282</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -3284,7 +3286,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -3295,7 +3297,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>296</v>
       </c>
@@ -3306,7 +3308,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>296</v>
       </c>
@@ -3317,7 +3319,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>296</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -3339,7 +3341,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -3350,7 +3352,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>299</v>
       </c>
@@ -3372,7 +3374,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>324</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>325</v>
       </c>
@@ -3394,7 +3396,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>326</v>
       </c>
@@ -3405,7 +3407,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>327</v>
       </c>
@@ -3416,7 +3418,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>329</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>297</v>
       </c>
@@ -3448,19 +3450,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB4DC11-02AF-44A1-9E33-056BEEEC10B1}">
   <dimension ref="A1:DO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR8" sqref="BR8"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="116.109375" customWidth="1"/>
     <col min="3" max="109" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="52.2" customHeight="1" thickBot="1">
+    <row r="1" spans="1:119" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
@@ -3801,7 +3803,7 @@
       <c r="DN1" s="12"/>
       <c r="DO1" s="12"/>
     </row>
-    <row r="2" spans="1:119" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1">
+    <row r="2" spans="1:119" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
@@ -3815,7 +3817,7 @@
         <v>209</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>211</v>
@@ -3845,7 +3847,7 @@
         <v>155</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P2" s="47" t="s">
         <v>161</v>
@@ -3854,7 +3856,7 @@
         <v>162</v>
       </c>
       <c r="R2" s="47" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S2" s="47" t="s">
         <v>167</v>
@@ -3875,13 +3877,13 @@
         <v>33</v>
       </c>
       <c r="Y2" s="37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z2" s="37" t="s">
         <v>49</v>
       </c>
       <c r="AA2" s="37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AB2" s="37" t="s">
         <v>50</v>
@@ -3905,7 +3907,7 @@
         <v>64</v>
       </c>
       <c r="AI2" s="37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AJ2" s="37" t="s">
         <v>36</v>
@@ -3938,19 +3940,19 @@
         <v>180</v>
       </c>
       <c r="AT2" s="43" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AU2" s="49" t="s">
         <v>74</v>
       </c>
       <c r="AV2" s="49" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AW2" s="49" t="s">
         <v>79</v>
       </c>
       <c r="AX2" s="49" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AY2" s="49" t="s">
         <v>86</v>
@@ -3965,7 +3967,7 @@
         <v>136</v>
       </c>
       <c r="BC2" s="51" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="BD2" s="53" t="s">
         <v>189</v>
@@ -3980,22 +3982,22 @@
         <v>100</v>
       </c>
       <c r="BH2" s="55" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="BI2" s="55" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="BJ2" s="55" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="BK2" s="55" t="s">
         <v>103</v>
       </c>
       <c r="BL2" s="55" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BM2" s="55" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="BN2" s="57" t="s">
         <v>100</v>
@@ -4004,7 +4006,7 @@
         <v>105</v>
       </c>
       <c r="BP2" s="57" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="BQ2" s="57" t="s">
         <v>198</v>
@@ -4019,7 +4021,7 @@
         <v>217</v>
       </c>
       <c r="BU2" s="59" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="BV2" s="59" t="s">
         <v>220</v>
@@ -4037,7 +4039,7 @@
         <v>105</v>
       </c>
       <c r="CA2" s="61" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="CB2" s="61" t="s">
         <v>103</v>
@@ -4052,7 +4054,7 @@
         <v>231</v>
       </c>
       <c r="CF2" s="63" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="CG2" s="63" t="s">
         <v>235</v>
@@ -4064,10 +4066,10 @@
         <v>240</v>
       </c>
       <c r="CJ2" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="CK2" s="65" t="s">
         <v>444</v>
-      </c>
-      <c r="CK2" s="65" t="s">
-        <v>448</v>
       </c>
       <c r="CL2" s="65" t="s">
         <v>246</v>
@@ -4082,7 +4084,7 @@
         <v>105</v>
       </c>
       <c r="CP2" s="67" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="CQ2" s="67" t="s">
         <v>103</v>
@@ -4121,7 +4123,7 @@
         <v>100</v>
       </c>
       <c r="DC2" s="107" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="DD2" s="107" t="s">
         <v>105</v>
@@ -4142,7 +4144,7 @@
       <c r="DN2" s="13"/>
       <c r="DO2" s="13"/>
     </row>
-    <row r="3" spans="1:119" ht="52.2" customHeight="1" thickBot="1">
+    <row r="3" spans="1:119" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
@@ -4477,7 +4479,7 @@
       <c r="DN3" s="13"/>
       <c r="DO3" s="13"/>
     </row>
-    <row r="4" spans="1:119" ht="52.2" customHeight="1" thickBot="1">
+    <row r="4" spans="1:119" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
@@ -4487,7 +4489,7 @@
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="45" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="45" t="s">
@@ -4541,7 +4543,7 @@
         <v>65</v>
       </c>
       <c r="AI4" s="37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AJ4" s="38"/>
       <c r="AK4" s="38"/>
@@ -4596,7 +4598,7 @@
         <v>106</v>
       </c>
       <c r="BJ4" s="56" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="BK4" s="56"/>
       <c r="BL4" s="56"/>
@@ -4608,7 +4610,7 @@
         <v>106</v>
       </c>
       <c r="BP4" s="58" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="BQ4" s="58"/>
       <c r="BR4" s="58"/>
@@ -4619,7 +4621,7 @@
         <v>218</v>
       </c>
       <c r="BU4" s="60" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="BV4" s="60" t="s">
         <v>221</v>
@@ -4633,7 +4635,7 @@
         <v>106</v>
       </c>
       <c r="CA4" s="62" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="CB4" s="61"/>
       <c r="CC4" s="61"/>
@@ -4652,7 +4654,7 @@
         <v>241</v>
       </c>
       <c r="CJ4" s="66" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="CK4" s="66" t="s">
         <v>244</v>
@@ -4664,7 +4666,7 @@
         <v>106</v>
       </c>
       <c r="CP4" s="68" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="CQ4" s="68"/>
       <c r="CR4" s="68"/>
@@ -4681,7 +4683,7 @@
       </c>
       <c r="DB4" s="107"/>
       <c r="DC4" s="107" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="DD4" s="107" t="s">
         <v>272</v>
@@ -4698,7 +4700,7 @@
       <c r="DN4" s="1"/>
       <c r="DO4" s="1"/>
     </row>
-    <row r="5" spans="1:119" ht="65.55" customHeight="1">
+    <row r="5" spans="1:119" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>45</v>
       </c>
@@ -5025,7 +5027,7 @@
       <c r="DN5" s="13"/>
       <c r="DO5" s="13"/>
     </row>
-    <row r="6" spans="1:119" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1">
+    <row r="6" spans="1:119" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
@@ -5039,7 +5041,7 @@
         <v>210</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F6" s="92" t="s">
         <v>212</v>
@@ -5099,16 +5101,16 @@
         <v>51</v>
       </c>
       <c r="Y6" s="92" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Z6" s="92" t="s">
         <v>47</v>
       </c>
       <c r="AA6" s="92" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AB6" s="92" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AC6" s="92" t="s">
         <v>24</v>
@@ -5129,7 +5131,7 @@
         <v>63</v>
       </c>
       <c r="AI6" s="92" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AJ6" s="92" t="s">
         <v>38</v>
@@ -5138,7 +5140,7 @@
         <v>66</v>
       </c>
       <c r="AL6" s="92" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AM6" s="92" t="s">
         <v>147</v>
@@ -5201,19 +5203,19 @@
         <v>193</v>
       </c>
       <c r="BG6" s="92" t="s">
+        <v>403</v>
+      </c>
+      <c r="BH6" s="92" t="s">
+        <v>426</v>
+      </c>
+      <c r="BI6" s="92" t="s">
+        <v>427</v>
+      </c>
+      <c r="BJ6" s="92" t="s">
         <v>407</v>
       </c>
-      <c r="BH6" s="92" t="s">
-        <v>430</v>
-      </c>
-      <c r="BI6" s="92" t="s">
-        <v>431</v>
-      </c>
-      <c r="BJ6" s="92" t="s">
-        <v>411</v>
-      </c>
       <c r="BK6" s="92" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="BL6" s="92" t="s">
         <v>171</v>
@@ -5225,16 +5227,16 @@
         <v>196</v>
       </c>
       <c r="BO6" s="92" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="BP6" s="92" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="BQ6" s="92" t="s">
         <v>199</v>
       </c>
       <c r="BR6" s="92" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="BS6" s="92" t="s">
         <v>200</v>
@@ -5243,7 +5245,7 @@
         <v>219</v>
       </c>
       <c r="BU6" s="92" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="BV6" s="92" t="s">
         <v>222</v>
@@ -5261,7 +5263,7 @@
         <v>107</v>
       </c>
       <c r="CA6" s="92" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="CB6" s="92" t="s">
         <v>104</v>
@@ -5288,7 +5290,7 @@
         <v>242</v>
       </c>
       <c r="CJ6" s="92" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="CK6" s="92" t="s">
         <v>243</v>
@@ -5300,19 +5302,19 @@
         <v>249</v>
       </c>
       <c r="CN6" s="92" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="CO6" s="92" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="CP6" s="92" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="CQ6" s="92" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="CR6" s="92" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="CS6" s="92" t="s">
         <v>252</v>
@@ -5340,10 +5342,10 @@
       </c>
       <c r="DA6" s="93"/>
       <c r="DB6" s="108" t="s">
-        <v>413</v>
-      </c>
-      <c r="DC6" s="136" t="s">
-        <v>452</v>
+        <v>409</v>
+      </c>
+      <c r="DC6" s="123" t="s">
+        <v>448</v>
       </c>
       <c r="DD6" s="108" t="s">
         <v>273</v>
@@ -5351,7 +5353,7 @@
       <c r="DE6" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="DF6" s="135" t="s">
+      <c r="DF6" s="122" t="s">
         <v>276</v>
       </c>
       <c r="DG6" s="105"/>
@@ -5364,8 +5366,8 @@
       <c r="DN6" s="15"/>
       <c r="DO6" s="15"/>
     </row>
-    <row r="7" spans="1:119" s="2" customFormat="1" ht="57.6">
-      <c r="A7" s="129"/>
+    <row r="7" spans="1:119" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="127"/>
       <c r="B7" s="109"/>
       <c r="C7" s="96" t="b">
         <v>1</v>
@@ -5380,10 +5382,10 @@
         <v>281</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H7" s="97" t="s">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="I7" s="97">
         <v>1234567890</v>
@@ -5398,13 +5400,13 @@
         <v>1234</v>
       </c>
       <c r="M7" s="97" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N7" s="98" t="s">
         <v>332</v>
       </c>
       <c r="O7" s="98" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P7" s="100">
         <v>42046.375162037039</v>
@@ -5434,16 +5436,16 @@
         <v>305</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Z7" s="97">
         <v>1032704</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AB7" s="97" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AC7" s="97" t="s">
         <v>306</v>
@@ -5461,16 +5463,16 @@
         <v>309</v>
       </c>
       <c r="AH7" s="97" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AI7" s="97" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AJ7" s="99">
         <v>42384</v>
       </c>
       <c r="AK7" s="97" t="s">
-        <v>351</v>
+        <v>452</v>
       </c>
       <c r="AL7" s="97" t="s">
         <v>335</v>
@@ -5485,7 +5487,7 @@
         <v>313</v>
       </c>
       <c r="AP7" s="97" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AQ7" s="97" t="s">
         <v>314</v>
@@ -5497,10 +5499,10 @@
         <v>281</v>
       </c>
       <c r="AT7" s="97" t="s">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="AU7" s="97" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AV7" s="98" t="s">
         <v>337</v>
@@ -5515,7 +5517,7 @@
         <v>315</v>
       </c>
       <c r="AZ7" s="98" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="BA7" s="98" t="s">
         <v>339</v>
@@ -5527,7 +5529,7 @@
         <v>341</v>
       </c>
       <c r="BD7" s="97" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BE7" s="98" t="s">
         <v>342</v>
@@ -5539,31 +5541,31 @@
         <v>328</v>
       </c>
       <c r="BH7" s="97" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="BI7" s="97" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="BJ7" s="98" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="BK7" s="99">
         <v>38538</v>
       </c>
       <c r="BL7" s="97" t="s">
-        <v>422</v>
-      </c>
-      <c r="BM7" s="122" t="s">
-        <v>421</v>
+        <v>418</v>
+      </c>
+      <c r="BM7" s="120" t="s">
+        <v>417</v>
       </c>
       <c r="BN7" s="97" t="s">
         <v>328</v>
       </c>
       <c r="BO7" s="97" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="BP7" s="98" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BQ7" s="99">
         <v>37399</v>
@@ -5577,8 +5579,8 @@
       <c r="BT7" s="97" t="s">
         <v>328</v>
       </c>
-      <c r="BU7" s="134" t="s">
-        <v>440</v>
+      <c r="BU7" s="121" t="s">
+        <v>436</v>
       </c>
       <c r="BV7" s="97" t="s">
         <v>344</v>
@@ -5593,16 +5595,16 @@
         <v>328</v>
       </c>
       <c r="BZ7" s="97" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="CA7" s="98" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="CB7" s="99">
         <v>38538</v>
       </c>
       <c r="CC7" s="102" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="CD7" s="98" t="s">
         <v>346</v>
@@ -5611,7 +5613,7 @@
         <v>347</v>
       </c>
       <c r="CF7" s="98" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="CG7" s="98" t="s">
         <v>348</v>
@@ -5620,10 +5622,10 @@
         <v>39430</v>
       </c>
       <c r="CI7" s="97" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="CJ7" s="97" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="CK7" s="98" t="s">
         <v>349</v>
@@ -5638,22 +5640,22 @@
         <v>328</v>
       </c>
       <c r="CO7" s="97" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="CP7" s="98" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="CQ7" s="99">
         <v>36343</v>
       </c>
       <c r="CR7" s="102" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="CS7" s="97">
         <v>99863313444316</v>
       </c>
       <c r="CT7" s="101" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="CU7" s="101" t="s">
         <v>317</v>
@@ -5680,20 +5682,20 @@
         <v>328</v>
       </c>
       <c r="DC7" s="98" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="DD7" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="DE7" s="99">
         <v>36343</v>
       </c>
       <c r="DF7" s="112" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:119">
-      <c r="A8" s="130"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A8" s="128"/>
       <c r="B8" s="113"/>
       <c r="C8" s="21"/>
       <c r="D8" s="114"/>
@@ -5793,8 +5795,8 @@
       <c r="CW8" s="114"/>
       <c r="DF8" s="22"/>
     </row>
-    <row r="9" spans="1:119">
-      <c r="A9" s="130"/>
+    <row r="9" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A9" s="128"/>
       <c r="B9" s="113"/>
       <c r="C9" s="21"/>
       <c r="D9" s="114"/>
@@ -5894,8 +5896,8 @@
       <c r="CW9" s="114"/>
       <c r="DF9" s="22"/>
     </row>
-    <row r="10" spans="1:119">
-      <c r="A10" s="130"/>
+    <row r="10" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A10" s="128"/>
       <c r="B10" s="113"/>
       <c r="C10" s="21"/>
       <c r="D10" s="114"/>
@@ -5995,8 +5997,8 @@
       <c r="CW10" s="114"/>
       <c r="DF10" s="22"/>
     </row>
-    <row r="11" spans="1:119">
-      <c r="A11" s="130"/>
+    <row r="11" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A11" s="128"/>
       <c r="B11" s="113"/>
       <c r="C11" s="21"/>
       <c r="D11" s="114"/>
@@ -6096,8 +6098,8 @@
       <c r="CW11" s="114"/>
       <c r="DF11" s="22"/>
     </row>
-    <row r="12" spans="1:119">
-      <c r="A12" s="130"/>
+    <row r="12" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A12" s="128"/>
       <c r="B12" s="113"/>
       <c r="C12" s="21"/>
       <c r="D12" s="114"/>
@@ -6197,8 +6199,8 @@
       <c r="CW12" s="114"/>
       <c r="DF12" s="22"/>
     </row>
-    <row r="13" spans="1:119" ht="30" customHeight="1">
-      <c r="A13" s="130"/>
+    <row r="13" spans="1:119" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="128"/>
       <c r="B13" s="113"/>
       <c r="C13" s="21"/>
       <c r="D13" s="114"/>
@@ -6298,8 +6300,8 @@
       <c r="CW13" s="114"/>
       <c r="DF13" s="22"/>
     </row>
-    <row r="14" spans="1:119" ht="30" customHeight="1">
-      <c r="A14" s="130"/>
+    <row r="14" spans="1:119" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="128"/>
       <c r="B14" s="113"/>
       <c r="C14" s="21"/>
       <c r="D14" s="114"/>
@@ -6396,11 +6398,11 @@
       <c r="CT14" s="114"/>
       <c r="CU14" s="114"/>
       <c r="CV14" s="114"/>
-      <c r="CW14" s="121"/>
+      <c r="CW14" s="119"/>
       <c r="DF14" s="22"/>
     </row>
-    <row r="15" spans="1:119" ht="30" customHeight="1">
-      <c r="A15" s="130"/>
+    <row r="15" spans="1:119" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="128"/>
       <c r="B15" s="113"/>
       <c r="C15" s="21"/>
       <c r="D15" s="114"/>
@@ -6500,8 +6502,8 @@
       <c r="CW15" s="114"/>
       <c r="DF15" s="22"/>
     </row>
-    <row r="16" spans="1:119" ht="15" thickBot="1">
-      <c r="A16" s="131"/>
+    <row r="16" spans="1:119" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="129"/>
       <c r="B16" s="117"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
@@ -6713,7 +6715,7 @@
       <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="116.109375" customWidth="1"/>
@@ -6725,7 +6727,7 @@
     <col min="98" max="102" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="52.2" customHeight="1">
+    <row r="1" spans="1:122" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
@@ -6853,7 +6855,7 @@
       <c r="DQ1" s="94"/>
       <c r="DR1" s="94"/>
     </row>
-    <row r="2" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1">
+    <row r="2" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
@@ -6876,13 +6878,13 @@
         <v>33</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>50</v>
@@ -6906,7 +6908,7 @@
         <v>64</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="S2" s="37" t="s">
         <v>36</v>
@@ -6969,7 +6971,7 @@
         <v>209</v>
       </c>
       <c r="AM2" s="45" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AN2" s="45" t="s">
         <v>211</v>
@@ -6999,7 +7001,7 @@
         <v>155</v>
       </c>
       <c r="AW2" s="47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AX2" s="47" t="s">
         <v>161</v>
@@ -7008,7 +7010,7 @@
         <v>162</v>
       </c>
       <c r="AZ2" s="47" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BA2" s="47" t="s">
         <v>167</v>
@@ -7017,13 +7019,13 @@
         <v>74</v>
       </c>
       <c r="BC2" s="49" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="BD2" s="49" t="s">
         <v>79</v>
       </c>
       <c r="BE2" s="49" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="BF2" s="49" t="s">
         <v>86</v>
@@ -7038,7 +7040,7 @@
         <v>136</v>
       </c>
       <c r="BJ2" s="51" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="BK2" s="53" t="s">
         <v>189</v>
@@ -7053,22 +7055,22 @@
         <v>100</v>
       </c>
       <c r="BO2" s="55" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="BP2" s="55" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="BQ2" s="55" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="BR2" s="55" t="s">
         <v>103</v>
       </c>
       <c r="BS2" s="55" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BT2" s="55" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="BU2" s="57" t="s">
         <v>100</v>
@@ -7077,7 +7079,7 @@
         <v>105</v>
       </c>
       <c r="BW2" s="57" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="BX2" s="57" t="s">
         <v>198</v>
@@ -7107,7 +7109,7 @@
         <v>105</v>
       </c>
       <c r="CG2" s="61" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="CH2" s="61" t="s">
         <v>103</v>
@@ -7221,7 +7223,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:122" ht="52.2" customHeight="1">
+    <row r="3" spans="1:122" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:122" ht="52.2" customHeight="1">
+    <row r="4" spans="1:122" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
@@ -7616,7 +7618,7 @@
         <v>65</v>
       </c>
       <c r="R4" s="37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -7649,7 +7651,7 @@
       <c r="AK4" s="46"/>
       <c r="AL4" s="46"/>
       <c r="AM4" s="45" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AN4" s="45"/>
       <c r="AO4" s="45" t="s">
@@ -7715,7 +7717,7 @@
         <v>106</v>
       </c>
       <c r="BQ4" s="56" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="BR4" s="56"/>
       <c r="BS4" s="56"/>
@@ -7727,7 +7729,7 @@
         <v>106</v>
       </c>
       <c r="BW4" s="58" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="BX4" s="58"/>
       <c r="BY4" s="58"/>
@@ -7749,7 +7751,7 @@
         <v>106</v>
       </c>
       <c r="CG4" s="62" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="CH4" s="61"/>
       <c r="CI4" s="61"/>
@@ -7803,7 +7805,7 @@
       <c r="DQ4" s="94"/>
       <c r="DR4" s="94"/>
     </row>
-    <row r="5" spans="1:122" ht="65.55" customHeight="1">
+    <row r="5" spans="1:122" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>45</v>
       </c>
@@ -8165,7 +8167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1">
+    <row r="6" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
@@ -8188,16 +8190,16 @@
         <v>51</v>
       </c>
       <c r="H6" s="92" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I6" s="92" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K6" s="92" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L6" s="92" t="s">
         <v>24</v>
@@ -8218,7 +8220,7 @@
         <v>63</v>
       </c>
       <c r="R6" s="92" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S6" s="92" t="s">
         <v>38</v>
@@ -8227,7 +8229,7 @@
         <v>66</v>
       </c>
       <c r="U6" s="92" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="V6" s="92" t="s">
         <v>66</v>
@@ -8279,7 +8281,7 @@
         <v>210</v>
       </c>
       <c r="AM6" s="92" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AN6" s="92" t="s">
         <v>212</v>
@@ -8360,19 +8362,19 @@
         <v>193</v>
       </c>
       <c r="BN6" s="92" t="s">
+        <v>403</v>
+      </c>
+      <c r="BO6" s="92" t="s">
+        <v>426</v>
+      </c>
+      <c r="BP6" s="92" t="s">
+        <v>427</v>
+      </c>
+      <c r="BQ6" s="92" t="s">
         <v>407</v>
       </c>
-      <c r="BO6" s="92" t="s">
-        <v>430</v>
-      </c>
-      <c r="BP6" s="92" t="s">
-        <v>431</v>
-      </c>
-      <c r="BQ6" s="92" t="s">
-        <v>411</v>
-      </c>
       <c r="BR6" s="92" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="BS6" s="92" t="s">
         <v>171</v>
@@ -8384,16 +8386,16 @@
         <v>196</v>
       </c>
       <c r="BV6" s="92" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="BW6" s="92" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="BX6" s="92" t="s">
         <v>199</v>
       </c>
       <c r="BY6" s="92" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="BZ6" s="92" t="s">
         <v>200</v>
@@ -8417,7 +8419,7 @@
         <v>107</v>
       </c>
       <c r="CG6" s="92" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="CH6" s="92" t="s">
         <v>104</v>
@@ -8453,7 +8455,7 @@
         <v>249</v>
       </c>
       <c r="CS6" s="92" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="CT6" s="92" t="s">
         <v>126</v>
@@ -8529,8 +8531,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:122">
-      <c r="A7" s="132"/>
+    <row r="7" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A7" s="130"/>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -8655,8 +8657,8 @@
       <c r="DQ7" s="18"/>
       <c r="DR7" s="20"/>
     </row>
-    <row r="8" spans="1:122">
-      <c r="A8" s="132"/>
+    <row r="8" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A8" s="130"/>
       <c r="B8" s="6"/>
       <c r="C8" s="21"/>
       <c r="CJ8" s="16"/>
@@ -8670,8 +8672,8 @@
       <c r="CW8" s="9"/>
       <c r="DR8" s="22"/>
     </row>
-    <row r="9" spans="1:122">
-      <c r="A9" s="132"/>
+    <row r="9" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A9" s="130"/>
       <c r="B9" s="6"/>
       <c r="C9" s="21"/>
       <c r="CJ9" s="16"/>
@@ -8685,8 +8687,8 @@
       <c r="CW9" s="9"/>
       <c r="DR9" s="22"/>
     </row>
-    <row r="10" spans="1:122">
-      <c r="A10" s="132"/>
+    <row r="10" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A10" s="130"/>
       <c r="B10" s="6"/>
       <c r="C10" s="21"/>
       <c r="CJ10" s="16"/>
@@ -8700,8 +8702,8 @@
       <c r="CW10" s="9"/>
       <c r="DR10" s="22"/>
     </row>
-    <row r="11" spans="1:122">
-      <c r="A11" s="132"/>
+    <row r="11" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A11" s="130"/>
       <c r="B11" s="6"/>
       <c r="C11" s="21"/>
       <c r="CJ11" s="16"/>
@@ -8715,8 +8717,8 @@
       <c r="CW11" s="9"/>
       <c r="DR11" s="22"/>
     </row>
-    <row r="12" spans="1:122">
-      <c r="A12" s="132"/>
+    <row r="12" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A12" s="130"/>
       <c r="B12" s="6"/>
       <c r="C12" s="21"/>
       <c r="CJ12" s="16"/>
@@ -8730,8 +8732,8 @@
       <c r="CW12" s="9"/>
       <c r="DR12" s="22"/>
     </row>
-    <row r="13" spans="1:122" ht="30" customHeight="1">
-      <c r="A13" s="132"/>
+    <row r="13" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="130"/>
       <c r="B13" s="6"/>
       <c r="C13" s="21"/>
       <c r="CJ13" s="16"/>
@@ -8745,8 +8747,8 @@
       <c r="CW13" s="9"/>
       <c r="DR13" s="22"/>
     </row>
-    <row r="14" spans="1:122" ht="30" customHeight="1">
-      <c r="A14" s="132"/>
+    <row r="14" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="130"/>
       <c r="B14" s="6"/>
       <c r="C14" s="21"/>
       <c r="CJ14" s="16"/>
@@ -8760,8 +8762,8 @@
       <c r="CW14" s="9"/>
       <c r="DR14" s="22"/>
     </row>
-    <row r="15" spans="1:122" ht="30" customHeight="1">
-      <c r="A15" s="132"/>
+    <row r="15" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="130"/>
       <c r="B15" s="6"/>
       <c r="C15" s="21"/>
       <c r="CJ15" s="16"/>
@@ -8775,8 +8777,8 @@
       <c r="CW15" s="9"/>
       <c r="DR15" s="22"/>
     </row>
-    <row r="16" spans="1:122" ht="15" thickBot="1">
-      <c r="A16" s="133"/>
+    <row r="16" spans="1:122" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="131"/>
       <c r="B16" s="7"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>

--- a/src/resources/Fhir_Cohort_Import_Template_Full_Sample.xlsx
+++ b/src/resources/Fhir_Cohort_Import_Template_Full_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mriley7\workspace\T21_Connectathon_Sets\Fhir_CohortPython_Generation\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B029207C-DA81-4C0C-AB97-B2EEF7AD1A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19032D8E-875D-496D-B7BB-D8C1047C7014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" xr2:uid="{B7CAF98F-F4CF-4673-A736-BDE9BA8D985C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" activeTab="4" xr2:uid="{B7CAF98F-F4CF-4673-A736-BDE9BA8D985C}"/>
   </bookViews>
   <sheets>
     <sheet name="How To Use This Workbook" sheetId="6" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2345,12 +2345,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2368,21 +2383,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2742,11 +2742,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDBDB0D-33EF-4BF8-9FC7-FC7A4F2A324F}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="96.77734375" style="2" customWidth="1"/>
@@ -2754,39 +2754,39 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:3" ht="19.8">
+      <c r="A1" s="128" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="132"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="133" t="s">
+      <c r="B1" s="128"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickBot="1">
+      <c r="A2" s="129" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-    </row>
-    <row r="3" spans="1:3" ht="103.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+    </row>
+    <row r="3" spans="1:3" ht="103.5" customHeight="1" thickTop="1">
+      <c r="A3" s="126" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="124"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="134" t="s">
+      <c r="B3" s="126"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" thickBot="1">
+      <c r="A4" s="130" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-    </row>
-    <row r="5" spans="1:3" ht="40.799999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+    </row>
+    <row r="5" spans="1:3" ht="40.799999999999997" customHeight="1" thickTop="1">
+      <c r="A5" s="131" t="s">
         <v>376</v>
       </c>
-      <c r="B5" s="126"/>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="131"/>
+    </row>
+    <row r="6" spans="1:3" ht="57.6">
       <c r="A6" s="121" t="s">
         <v>377</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="121" t="s">
         <v>379</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.8">
       <c r="A8" s="121" t="s">
         <v>381</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.8">
       <c r="A9" s="121" t="s">
         <v>383</v>
       </c>
@@ -2818,48 +2818,48 @@
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="133" t="s">
+    <row r="10" spans="1:3" ht="18" thickBot="1">
+      <c r="A10" s="129" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-    </row>
-    <row r="11" spans="1:3" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124" t="s">
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+    </row>
+    <row r="11" spans="1:3" ht="37.200000000000003" customHeight="1" thickTop="1">
+      <c r="A11" s="126" t="s">
         <v>386</v>
       </c>
-      <c r="B11" s="124"/>
-    </row>
-    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="125" t="s">
+      <c r="B11" s="126"/>
+    </row>
+    <row r="12" spans="1:3" ht="37.200000000000003" customHeight="1">
+      <c r="A12" s="127" t="s">
         <v>387</v>
       </c>
-      <c r="B12" s="125"/>
-    </row>
-    <row r="13" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="125" t="s">
+      <c r="B12" s="127"/>
+    </row>
+    <row r="13" spans="1:3" ht="37.200000000000003" customHeight="1">
+      <c r="A13" s="127" t="s">
         <v>388</v>
       </c>
-      <c r="B13" s="125"/>
-    </row>
-    <row r="14" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="125" t="s">
+      <c r="B13" s="127"/>
+    </row>
+    <row r="14" spans="1:3" ht="37.200000000000003" customHeight="1">
+      <c r="A14" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="B14" s="125"/>
-    </row>
-    <row r="15" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A15" s="135" t="s">
+      <c r="B14" s="127"/>
+    </row>
+    <row r="15" spans="1:3" ht="34.799999999999997">
+      <c r="A15" s="124" t="s">
         <v>390</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135" t="s">
+      <c r="B15" s="124"/>
+      <c r="C15" s="124" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="136" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="125" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="118" t="s">
@@ -2869,8 +2869,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="136" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="125" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="118" t="s">
@@ -2880,8 +2880,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="136" t="s">
+    <row r="18" spans="1:3" ht="28.8">
+      <c r="A18" s="125" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="118" t="s">
@@ -2891,8 +2891,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="136" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="125" t="s">
         <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2933,13 +2933,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="68.33203125" customWidth="1"/>
     <col min="4" max="4" width="68.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="51" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>282</v>
       </c>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>287</v>
       </c>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>289</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>324</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>325</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>326</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>296</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>297</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>298</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>327</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>329</v>
       </c>
@@ -3153,19 +3153,19 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="C24" s="8"/>
     </row>
   </sheetData>
@@ -3193,12 +3193,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="28.8">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>282</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>296</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>296</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>296</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>299</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>324</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>325</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>326</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>327</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>329</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>297</v>
       </c>
@@ -3455,14 +3455,14 @@
       <selection pane="topRight" activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="116.109375" customWidth="1"/>
     <col min="3" max="109" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:119" ht="52.2" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="DN1" s="12"/>
       <c r="DO1" s="12"/>
     </row>
-    <row r="2" spans="1:119" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:119" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1">
       <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
@@ -4144,7 +4144,7 @@
       <c r="DN2" s="13"/>
       <c r="DO2" s="13"/>
     </row>
-    <row r="3" spans="1:119" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:119" ht="52.2" customHeight="1" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="DN3" s="13"/>
       <c r="DO3" s="13"/>
     </row>
-    <row r="4" spans="1:119" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:119" ht="52.2" customHeight="1" thickBot="1">
       <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="DN4" s="1"/>
       <c r="DO4" s="1"/>
     </row>
-    <row r="5" spans="1:119" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:119" ht="65.55" customHeight="1">
       <c r="A5" s="28" t="s">
         <v>45</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="DN5" s="13"/>
       <c r="DO5" s="13"/>
     </row>
-    <row r="6" spans="1:119" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:119" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
@@ -5366,8 +5366,8 @@
       <c r="DN6" s="15"/>
       <c r="DO6" s="15"/>
     </row>
-    <row r="7" spans="1:119" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:119" s="2" customFormat="1" ht="57.6">
+      <c r="A7" s="132"/>
       <c r="B7" s="109"/>
       <c r="C7" s="96" t="b">
         <v>1</v>
@@ -5694,8 +5694,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
+    <row r="8" spans="1:119">
+      <c r="A8" s="133"/>
       <c r="B8" s="113"/>
       <c r="C8" s="21"/>
       <c r="D8" s="114"/>
@@ -5795,8 +5795,8 @@
       <c r="CW8" s="114"/>
       <c r="DF8" s="22"/>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.3">
-      <c r="A9" s="128"/>
+    <row r="9" spans="1:119">
+      <c r="A9" s="133"/>
       <c r="B9" s="113"/>
       <c r="C9" s="21"/>
       <c r="D9" s="114"/>
@@ -5896,8 +5896,8 @@
       <c r="CW9" s="114"/>
       <c r="DF9" s="22"/>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.3">
-      <c r="A10" s="128"/>
+    <row r="10" spans="1:119">
+      <c r="A10" s="133"/>
       <c r="B10" s="113"/>
       <c r="C10" s="21"/>
       <c r="D10" s="114"/>
@@ -5997,8 +5997,8 @@
       <c r="CW10" s="114"/>
       <c r="DF10" s="22"/>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.3">
-      <c r="A11" s="128"/>
+    <row r="11" spans="1:119">
+      <c r="A11" s="133"/>
       <c r="B11" s="113"/>
       <c r="C11" s="21"/>
       <c r="D11" s="114"/>
@@ -6098,8 +6098,8 @@
       <c r="CW11" s="114"/>
       <c r="DF11" s="22"/>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.3">
-      <c r="A12" s="128"/>
+    <row r="12" spans="1:119">
+      <c r="A12" s="133"/>
       <c r="B12" s="113"/>
       <c r="C12" s="21"/>
       <c r="D12" s="114"/>
@@ -6199,8 +6199,8 @@
       <c r="CW12" s="114"/>
       <c r="DF12" s="22"/>
     </row>
-    <row r="13" spans="1:119" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="128"/>
+    <row r="13" spans="1:119" ht="30" customHeight="1">
+      <c r="A13" s="133"/>
       <c r="B13" s="113"/>
       <c r="C13" s="21"/>
       <c r="D13" s="114"/>
@@ -6300,8 +6300,8 @@
       <c r="CW13" s="114"/>
       <c r="DF13" s="22"/>
     </row>
-    <row r="14" spans="1:119" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="128"/>
+    <row r="14" spans="1:119" ht="30" customHeight="1">
+      <c r="A14" s="133"/>
       <c r="B14" s="113"/>
       <c r="C14" s="21"/>
       <c r="D14" s="114"/>
@@ -6401,8 +6401,8 @@
       <c r="CW14" s="119"/>
       <c r="DF14" s="22"/>
     </row>
-    <row r="15" spans="1:119" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="128"/>
+    <row r="15" spans="1:119" ht="30" customHeight="1">
+      <c r="A15" s="133"/>
       <c r="B15" s="113"/>
       <c r="C15" s="21"/>
       <c r="D15" s="114"/>
@@ -6502,8 +6502,8 @@
       <c r="CW15" s="114"/>
       <c r="DF15" s="22"/>
     </row>
-    <row r="16" spans="1:119" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="129"/>
+    <row r="16" spans="1:119" ht="15" thickBot="1">
+      <c r="A16" s="134"/>
       <c r="B16" s="117"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
@@ -6710,12 +6710,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D010D53-A2B8-4D7D-8239-2883E618B035}">
   <dimension ref="A1:DR16"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="116.109375" customWidth="1"/>
@@ -6727,7 +6727,7 @@
     <col min="98" max="102" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:122" ht="52.2" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
@@ -6855,7 +6855,7 @@
       <c r="DQ1" s="94"/>
       <c r="DR1" s="94"/>
     </row>
-    <row r="2" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:122" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:122" ht="52.2" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:122" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:122" ht="52.2" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
@@ -7805,7 +7805,7 @@
       <c r="DQ4" s="94"/>
       <c r="DR4" s="94"/>
     </row>
-    <row r="5" spans="1:122" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:122" ht="65.55" customHeight="1">
       <c r="A5" s="28" t="s">
         <v>45</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:122" s="2" customFormat="1" ht="52.2" customHeight="1" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
@@ -8531,8 +8531,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A7" s="130"/>
+    <row r="7" spans="1:122">
+      <c r="A7" s="135"/>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -8657,8 +8657,8 @@
       <c r="DQ7" s="18"/>
       <c r="DR7" s="20"/>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A8" s="130"/>
+    <row r="8" spans="1:122">
+      <c r="A8" s="135"/>
       <c r="B8" s="6"/>
       <c r="C8" s="21"/>
       <c r="CJ8" s="16"/>
@@ -8672,8 +8672,8 @@
       <c r="CW8" s="9"/>
       <c r="DR8" s="22"/>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A9" s="130"/>
+    <row r="9" spans="1:122">
+      <c r="A9" s="135"/>
       <c r="B9" s="6"/>
       <c r="C9" s="21"/>
       <c r="CJ9" s="16"/>
@@ -8687,8 +8687,8 @@
       <c r="CW9" s="9"/>
       <c r="DR9" s="22"/>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A10" s="130"/>
+    <row r="10" spans="1:122">
+      <c r="A10" s="135"/>
       <c r="B10" s="6"/>
       <c r="C10" s="21"/>
       <c r="CJ10" s="16"/>
@@ -8702,8 +8702,8 @@
       <c r="CW10" s="9"/>
       <c r="DR10" s="22"/>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A11" s="130"/>
+    <row r="11" spans="1:122">
+      <c r="A11" s="135"/>
       <c r="B11" s="6"/>
       <c r="C11" s="21"/>
       <c r="CJ11" s="16"/>
@@ -8717,8 +8717,8 @@
       <c r="CW11" s="9"/>
       <c r="DR11" s="22"/>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A12" s="130"/>
+    <row r="12" spans="1:122">
+      <c r="A12" s="135"/>
       <c r="B12" s="6"/>
       <c r="C12" s="21"/>
       <c r="CJ12" s="16"/>
@@ -8732,8 +8732,8 @@
       <c r="CW12" s="9"/>
       <c r="DR12" s="22"/>
     </row>
-    <row r="13" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="130"/>
+    <row r="13" spans="1:122" ht="30" customHeight="1">
+      <c r="A13" s="135"/>
       <c r="B13" s="6"/>
       <c r="C13" s="21"/>
       <c r="CJ13" s="16"/>
@@ -8747,8 +8747,8 @@
       <c r="CW13" s="9"/>
       <c r="DR13" s="22"/>
     </row>
-    <row r="14" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130"/>
+    <row r="14" spans="1:122" ht="30" customHeight="1">
+      <c r="A14" s="135"/>
       <c r="B14" s="6"/>
       <c r="C14" s="21"/>
       <c r="CJ14" s="16"/>
@@ -8762,8 +8762,8 @@
       <c r="CW14" s="9"/>
       <c r="DR14" s="22"/>
     </row>
-    <row r="15" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="130"/>
+    <row r="15" spans="1:122" ht="30" customHeight="1">
+      <c r="A15" s="135"/>
       <c r="B15" s="6"/>
       <c r="C15" s="21"/>
       <c r="CJ15" s="16"/>
@@ -8777,8 +8777,8 @@
       <c r="CW15" s="9"/>
       <c r="DR15" s="22"/>
     </row>
-    <row r="16" spans="1:122" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="131"/>
+    <row r="16" spans="1:122" ht="15" thickBot="1">
+      <c r="A16" s="136"/>
       <c r="B16" s="7"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
